--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3006422.712807252</v>
+        <v>2999370.83157789</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2852957.71698803</v>
+        <v>2852957.716988028</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1128636.521405821</v>
+        <v>1128636.521405822</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>117.9527887935166</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>158.5039624582837</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>137.6021345738953</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>103.4505979557518</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.41402108404357</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>228.0767087417152</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E5" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>221.2006630000037</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.07878346842722</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>51.08606341856217</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.884372849250084</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.1989433021659</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.0074739357076</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>228.2686594923559</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>100.6184178276514</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I11" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>207.9690315773462</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0692062056227</v>
+        <v>251.0692062056223</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I12" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4409234385126</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.4457662373732</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>108.8360659892425</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>107.5972406494108</v>
       </c>
       <c r="S13" t="n">
-        <v>197.0033507775478</v>
+        <v>94.25257029403465</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.3226232248754</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2344808517665</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>140.1557239215286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I14" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.2759542524083</v>
+        <v>130.2759542524092</v>
       </c>
       <c r="T14" t="n">
         <v>207.9690315773462</v>
@@ -1706,7 +1706,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I15" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.4457662373732</v>
       </c>
       <c r="I16" t="n">
-        <v>47.9420197906931</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.0033507775478</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.3226232248754</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2344808517665</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>152.6181875291639</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.8471537374571</v>
       </c>
       <c r="H17" t="n">
-        <v>304.0853047526229</v>
+        <v>304.0853047526227</v>
       </c>
       <c r="I17" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.2759542524083</v>
+        <v>130.2759542524092</v>
       </c>
       <c r="T17" t="n">
         <v>207.9690315773462</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0692062056227</v>
+        <v>251.0692062056223</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I18" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.4457662373732</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.5972406494108</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T19" t="n">
         <v>221.3226232248754</v>
@@ -2061,16 +2061,16 @@
         <v>286.2344808517665</v>
       </c>
       <c r="V19" t="n">
-        <v>36.30003945031414</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>195.6128658491959</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I20" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>207.9690315773462</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0692062056227</v>
+        <v>251.0692062056223</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I21" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.35035863701006</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.4457662373732</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>108.8360659892425</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>166.9065612377064</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.3226232248754</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2344808517665</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I23" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I24" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.32353617457957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.4409234385126</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.4457662373732</v>
       </c>
       <c r="I25" t="n">
-        <v>108.8360659892425</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.0033507775478</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.3226232248754</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>247.6833404410213</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I26" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I27" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.5972406494108</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>109.9718838324913</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>137.0402200790943</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2344808517665</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I29" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I30" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>117.6223443488113</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4409234385126</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>108.8360659892425</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>107.5972406494108</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T31" t="n">
         <v>221.3226232248754</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2344808517665</v>
+        <v>199.4377177212135</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I32" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I33" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.4409234385126</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.4457662373732</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.5972406494108</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3226232248754</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2344808517665</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>18.92435640226913</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.0815856100525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I35" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I36" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.5107993707029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4409234385126</v>
       </c>
       <c r="H37" t="n">
-        <v>148.4457662373732</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>108.8360659892425</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>107.5972406494108</v>
       </c>
       <c r="S37" t="n">
-        <v>197.0033507775478</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.3226232248754</v>
+        <v>160.0686955817582</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2344808517665</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I38" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>207.9690315773462</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0692062056223</v>
+        <v>251.0692062056227</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I39" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>37.55303795983059</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>107.5972406494108</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.0033507775478</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.261460452310293</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I41" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>207.9690315773462</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0692062056227</v>
+        <v>251.0692062056223</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I42" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4409234385126</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.4457662373732</v>
       </c>
       <c r="I43" t="n">
         <v>108.8360659892425</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.0033507775478</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>230.6167200463936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>44.79503616355926</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>304.0853047526229</v>
       </c>
       <c r="I44" t="n">
-        <v>77.25449598147694</v>
+        <v>77.25449598147696</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.37895956419788</v>
       </c>
       <c r="I45" t="n">
-        <v>25.73931919222166</v>
+        <v>25.73931919222168</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4409234385126</v>
       </c>
       <c r="H46" t="n">
-        <v>148.4457662373732</v>
+        <v>80.75424516529984</v>
       </c>
       <c r="I46" t="n">
-        <v>108.8360659892425</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5972406494108</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>13.74514904115784</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.3226232248754</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2344808517665</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.4082527667006</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="C2" t="n">
         <v>313.4082527667006</v>
       </c>
       <c r="D2" t="n">
-        <v>313.4082527667006</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="E2" t="n">
         <v>47.50720837107777</v>
@@ -4333,16 +4333,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4360,22 +4360,22 @@
         <v>698.4535282668857</v>
       </c>
       <c r="T2" t="n">
-        <v>473.5132653508255</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="U2" t="n">
-        <v>313.4082527667006</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="V2" t="n">
-        <v>313.4082527667006</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4082527667006</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="X2" t="n">
-        <v>313.4082527667006</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="Y2" t="n">
-        <v>313.4082527667006</v>
+        <v>698.4535282668857</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>682.1921321373161</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="C3" t="n">
-        <v>507.7391028561891</v>
+        <v>815.9109675228958</v>
       </c>
       <c r="D3" t="n">
-        <v>507.7391028561891</v>
+        <v>666.9765578616446</v>
       </c>
       <c r="E3" t="n">
         <v>507.7391028561891</v>
@@ -4418,13 +4418,13 @@
         <v>394.9337607940759</v>
       </c>
       <c r="M3" t="n">
-        <v>655.5433744062259</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="N3" t="n">
-        <v>916.1529880183758</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O3" t="n">
-        <v>916.1529880183758</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P3" t="n">
         <v>977.3180709271187</v>
@@ -4442,19 +4442,19 @@
         <v>954.9030226480426</v>
       </c>
       <c r="U3" t="n">
-        <v>850.4074691573842</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V3" t="n">
-        <v>850.4074691573842</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="W3" t="n">
-        <v>850.4074691573842</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="X3" t="n">
-        <v>850.4074691573842</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.4074691573842</v>
+        <v>954.9030226480426</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="F4" t="n">
         <v>21.05936271613333</v>
@@ -4512,28 +4512,28 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.7341079359765</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C5" t="n">
-        <v>546.7341079359765</v>
+        <v>874.2455409289015</v>
       </c>
       <c r="D5" t="n">
-        <v>546.7341079359765</v>
+        <v>595.2995674921788</v>
       </c>
       <c r="E5" t="n">
-        <v>267.7881344992537</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="F5" t="n">
-        <v>260.8426337500503</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G5" t="n">
-        <v>245.5275342275053</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
         <v>22.09252109618844</v>
@@ -4576,10 +4576,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O5" t="n">
         <v>989.7620250901066</v>
@@ -4609,10 +4609,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X5" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.7341079359765</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134.7267908976475</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="C6" t="n">
-        <v>134.7267908976475</v>
+        <v>232.9320603628179</v>
       </c>
       <c r="D6" t="n">
-        <v>134.7267908976475</v>
+        <v>232.9320603628179</v>
       </c>
       <c r="E6" t="n">
-        <v>134.7267908976475</v>
+        <v>73.69460535736235</v>
       </c>
       <c r="F6" t="n">
-        <v>134.7267908976475</v>
+        <v>73.69460535736235</v>
       </c>
       <c r="G6" t="n">
-        <v>134.7267908976475</v>
+        <v>73.69460535736235</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>73.69460535736235</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K6" t="n">
-        <v>28.39914141318535</v>
+        <v>45.18387750277333</v>
       </c>
       <c r="L6" t="n">
-        <v>274.5546080058863</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M6" t="n">
-        <v>288.9361218459458</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112777</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945615</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P6" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S6" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>634.2968452196395</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U6" t="n">
-        <v>634.2968452196395</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V6" t="n">
-        <v>399.1447369878968</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W6" t="n">
-        <v>144.9073802596952</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X6" t="n">
-        <v>144.9073802596952</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y6" t="n">
-        <v>144.9073802596952</v>
+        <v>407.3850896439449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.0287040240954</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K7" t="n">
         <v>22.09252109618844</v>
@@ -4758,19 +4758,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U7" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W7" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X7" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.0287040240954</v>
+        <v>37.1756025565036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4913,22 +4913,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>597.07729957758</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>369.7691122461817</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W10" t="n">
-        <v>369.7691122461817</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X10" t="n">
-        <v>369.7691122461817</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.7691122461817</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5029,31 +5029,31 @@
         <v>1309.215555851336</v>
       </c>
       <c r="F11" t="n">
-        <v>898.2296510617284</v>
+        <v>898.2296510617282</v>
       </c>
       <c r="G11" t="n">
-        <v>482.2224250642969</v>
+        <v>482.2224250642967</v>
       </c>
       <c r="H11" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767988</v>
       </c>
       <c r="I11" t="n">
         <v>97.03070715106473</v>
       </c>
       <c r="J11" t="n">
-        <v>226.1824819356559</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K11" t="n">
-        <v>764.3650706567811</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L11" t="n">
-        <v>1484.304788867393</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M11" t="n">
-        <v>2301.982988382467</v>
+        <v>2451.356887250996</v>
       </c>
       <c r="N11" t="n">
-        <v>3118.260078476121</v>
+        <v>3267.63397734465</v>
       </c>
       <c r="O11" t="n">
         <v>3843.859749927792</v>
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>984.3850031117485</v>
+        <v>984.3850031117487</v>
       </c>
       <c r="C12" t="n">
-        <v>809.9319738306215</v>
+        <v>809.9319738306217</v>
       </c>
       <c r="D12" t="n">
-        <v>660.9975641693702</v>
+        <v>660.9975641693704</v>
       </c>
       <c r="E12" t="n">
-        <v>501.7601091639148</v>
+        <v>501.7601091639149</v>
       </c>
       <c r="F12" t="n">
         <v>355.2255511907998</v>
@@ -5120,25 +5120,25 @@
         <v>97.03070715106473</v>
       </c>
       <c r="J12" t="n">
-        <v>144.3951856169702</v>
+        <v>269.2253106039749</v>
       </c>
       <c r="K12" t="n">
-        <v>565.3240327857144</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L12" t="n">
-        <v>825.587268086618</v>
+        <v>950.4173930736227</v>
       </c>
       <c r="M12" t="n">
-        <v>1351.486730063816</v>
+        <v>1273.489181018301</v>
       </c>
       <c r="N12" t="n">
-        <v>1697.517911821029</v>
+        <v>1619.520362775513</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.849045251546</v>
+        <v>1913.851496206031</v>
       </c>
       <c r="P12" t="n">
-        <v>2524.020803230887</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q12" t="n">
         <v>2619.089245888247</v>
@@ -5162,10 +5162,10 @@
         <v>1568.212139102303</v>
       </c>
       <c r="X12" t="n">
-        <v>1360.36063889677</v>
+        <v>1360.360638896771</v>
       </c>
       <c r="Y12" t="n">
-        <v>1152.600340131816</v>
+        <v>1152.600340131817</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.0342533879473</v>
+        <v>651.885807834858</v>
       </c>
       <c r="C13" t="n">
-        <v>415.0980704600404</v>
+        <v>651.885807834858</v>
       </c>
       <c r="D13" t="n">
-        <v>415.0980704600404</v>
+        <v>501.7691684225223</v>
       </c>
       <c r="E13" t="n">
-        <v>415.0980704600404</v>
+        <v>353.8560748401292</v>
       </c>
       <c r="F13" t="n">
-        <v>415.0980704600404</v>
+        <v>206.9661273422188</v>
       </c>
       <c r="G13" t="n">
-        <v>246.9759255726539</v>
+        <v>206.9661273422188</v>
       </c>
       <c r="H13" t="n">
-        <v>97.03070715106473</v>
+        <v>206.9661273422188</v>
       </c>
       <c r="I13" t="n">
         <v>97.03070715106473</v>
@@ -5208,16 +5208,16 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M13" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N13" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O13" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P13" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q13" t="n">
         <v>1550.398345902383</v>
@@ -5226,25 +5226,25 @@
         <v>1441.714264438331</v>
       </c>
       <c r="S13" t="n">
-        <v>1242.720980824647</v>
+        <v>1346.50964797971</v>
       </c>
       <c r="T13" t="n">
-        <v>1242.720980824647</v>
+        <v>1122.951442702058</v>
       </c>
       <c r="U13" t="n">
-        <v>953.595242590539</v>
+        <v>1122.951442702058</v>
       </c>
       <c r="V13" t="n">
-        <v>953.595242590539</v>
+        <v>1122.951442702058</v>
       </c>
       <c r="W13" t="n">
-        <v>812.0238042859646</v>
+        <v>833.5342726650978</v>
       </c>
       <c r="X13" t="n">
-        <v>584.0342533879473</v>
+        <v>833.5342726650978</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.0342533879473</v>
+        <v>833.5342726650978</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2422.232023996743</v>
+        <v>2422.232023996742</v>
       </c>
       <c r="C14" t="n">
-        <v>2053.269507056331</v>
+        <v>2053.26950705633</v>
       </c>
       <c r="D14" t="n">
         <v>1695.00380844958</v>
@@ -5272,49 +5272,49 @@
         <v>482.2224250642969</v>
       </c>
       <c r="H14" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767991</v>
       </c>
       <c r="I14" t="n">
         <v>97.03070715106473</v>
       </c>
       <c r="J14" t="n">
-        <v>226.1824819356559</v>
+        <v>291.2417376099096</v>
       </c>
       <c r="K14" t="n">
-        <v>764.3650706567811</v>
+        <v>829.4243263310346</v>
       </c>
       <c r="L14" t="n">
-        <v>1484.304788867393</v>
+        <v>1549.364044541646</v>
       </c>
       <c r="M14" t="n">
-        <v>2301.982988382467</v>
+        <v>2367.042244056721</v>
       </c>
       <c r="N14" t="n">
-        <v>3118.260078476121</v>
+        <v>3183.319334150375</v>
       </c>
       <c r="O14" t="n">
-        <v>3843.859749927792</v>
+        <v>3908.919005602045</v>
       </c>
       <c r="P14" t="n">
-        <v>4425.467899262555</v>
+        <v>4490.527154936808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4785.009637985157</v>
+        <v>4850.068893659411</v>
       </c>
       <c r="R14" t="n">
         <v>4851.535357553236</v>
       </c>
       <c r="S14" t="n">
-        <v>4719.943484571006</v>
+        <v>4719.943484571005</v>
       </c>
       <c r="T14" t="n">
-        <v>4509.873755704999</v>
+        <v>4509.873755704998</v>
       </c>
       <c r="U14" t="n">
-        <v>4256.268496911441</v>
+        <v>4256.26849691144</v>
       </c>
       <c r="V14" t="n">
-        <v>3925.20560956787</v>
+        <v>3925.205609567869</v>
       </c>
       <c r="W14" t="n">
         <v>3572.436954297756</v>
@@ -5323,7 +5323,7 @@
         <v>3198.971196036676</v>
       </c>
       <c r="Y14" t="n">
-        <v>2808.831864060865</v>
+        <v>2808.831864060864</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>984.3850031117485</v>
+        <v>984.3850031117487</v>
       </c>
       <c r="C15" t="n">
-        <v>809.9319738306215</v>
+        <v>809.9319738306217</v>
       </c>
       <c r="D15" t="n">
-        <v>660.9975641693702</v>
+        <v>660.9975641693704</v>
       </c>
       <c r="E15" t="n">
-        <v>501.7601091639148</v>
+        <v>501.7601091639149</v>
       </c>
       <c r="F15" t="n">
         <v>355.2255511907998</v>
@@ -5357,28 +5357,28 @@
         <v>97.03070715106473</v>
       </c>
       <c r="J15" t="n">
-        <v>144.3951856169702</v>
+        <v>269.2253106039749</v>
       </c>
       <c r="K15" t="n">
-        <v>303.5034481432616</v>
+        <v>428.3335731302662</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7666834441652</v>
+        <v>688.5968084311698</v>
       </c>
       <c r="M15" t="n">
-        <v>886.8384713888431</v>
+        <v>1444.298547914191</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.594215737066</v>
+        <v>1790.329729671403</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.849045251546</v>
+        <v>2084.660863101921</v>
       </c>
       <c r="P15" t="n">
-        <v>2524.020803230887</v>
+        <v>2301.554480127724</v>
       </c>
       <c r="Q15" t="n">
-        <v>2619.089245888247</v>
+        <v>2604.599437643575</v>
       </c>
       <c r="R15" t="n">
         <v>2619.089245888247</v>
@@ -5399,10 +5399,10 @@
         <v>1568.212139102303</v>
       </c>
       <c r="X15" t="n">
-        <v>1360.36063889677</v>
+        <v>1360.360638896771</v>
       </c>
       <c r="Y15" t="n">
-        <v>1152.600340131816</v>
+        <v>1152.600340131817</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>463.5243530769021</v>
+        <v>563.0111640424335</v>
       </c>
       <c r="C16" t="n">
-        <v>463.5243530769021</v>
+        <v>563.0111640424335</v>
       </c>
       <c r="D16" t="n">
-        <v>463.5243530769021</v>
+        <v>563.0111640424335</v>
       </c>
       <c r="E16" t="n">
-        <v>463.5243530769021</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="F16" t="n">
-        <v>463.5243530769021</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="G16" t="n">
-        <v>295.4022081895156</v>
+        <v>246.9759255726539</v>
       </c>
       <c r="H16" t="n">
-        <v>145.4569897679264</v>
+        <v>97.03070715106473</v>
       </c>
       <c r="I16" t="n">
         <v>97.03070715106473</v>
@@ -5445,16 +5445,16 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M16" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N16" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O16" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P16" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q16" t="n">
         <v>1550.398345902383</v>
@@ -5463,25 +5463,25 @@
         <v>1550.398345902383</v>
       </c>
       <c r="S16" t="n">
-        <v>1351.405062288698</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="T16" t="n">
-        <v>1127.846857011046</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="U16" t="n">
-        <v>1127.846857011046</v>
+        <v>1261.272607668275</v>
       </c>
       <c r="V16" t="n">
-        <v>873.1623688051592</v>
+        <v>1006.588119462388</v>
       </c>
       <c r="W16" t="n">
-        <v>873.1623688051592</v>
+        <v>717.1709494254274</v>
       </c>
       <c r="X16" t="n">
-        <v>645.1728179071418</v>
+        <v>563.0111640424335</v>
       </c>
       <c r="Y16" t="n">
-        <v>645.1728179071418</v>
+        <v>563.0111640424335</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1309.215555851336</v>
       </c>
       <c r="F17" t="n">
-        <v>898.2296510617284</v>
+        <v>898.2296510617282</v>
       </c>
       <c r="G17" t="n">
-        <v>482.2224250642969</v>
+        <v>482.2224250642967</v>
       </c>
       <c r="H17" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767991</v>
       </c>
       <c r="I17" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J17" t="n">
-        <v>375.5563808041849</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K17" t="n">
-        <v>913.73896952531</v>
+        <v>764.3650706567824</v>
       </c>
       <c r="L17" t="n">
-        <v>1633.678687735922</v>
+        <v>1484.304788867394</v>
       </c>
       <c r="M17" t="n">
-        <v>2451.356887250996</v>
+        <v>2301.982988382469</v>
       </c>
       <c r="N17" t="n">
-        <v>3267.63397734465</v>
+        <v>3118.260078476123</v>
       </c>
       <c r="O17" t="n">
-        <v>3993.233648796321</v>
+        <v>3843.859749927793</v>
       </c>
       <c r="P17" t="n">
-        <v>4574.841798131084</v>
+        <v>4425.467899262556</v>
       </c>
       <c r="Q17" t="n">
-        <v>4785.009637985157</v>
+        <v>4785.009637985158</v>
       </c>
       <c r="R17" t="n">
-        <v>4851.535357553236</v>
+        <v>4851.535357553237</v>
       </c>
       <c r="S17" t="n">
         <v>4719.943484571006</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>984.3850031117485</v>
+        <v>984.3850031117487</v>
       </c>
       <c r="C18" t="n">
-        <v>809.9319738306215</v>
+        <v>809.9319738306217</v>
       </c>
       <c r="D18" t="n">
-        <v>660.9975641693702</v>
+        <v>660.9975641693704</v>
       </c>
       <c r="E18" t="n">
-        <v>501.7601091639148</v>
+        <v>501.7601091639149</v>
       </c>
       <c r="F18" t="n">
         <v>355.2255511907998</v>
       </c>
       <c r="G18" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H18" t="n">
         <v>123.0300194664402</v>
       </c>
       <c r="I18" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J18" t="n">
-        <v>144.3951856169702</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K18" t="n">
-        <v>303.5034481432616</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7666834441652</v>
+        <v>1135.716568214185</v>
       </c>
       <c r="M18" t="n">
-        <v>1068.8646600749</v>
+        <v>1458.788356158863</v>
       </c>
       <c r="N18" t="n">
-        <v>1414.895841832113</v>
+        <v>1804.819537916076</v>
       </c>
       <c r="O18" t="n">
         <v>2099.150671346593</v>
@@ -5636,10 +5636,10 @@
         <v>1568.212139102303</v>
       </c>
       <c r="X18" t="n">
-        <v>1360.36063889677</v>
+        <v>1360.360638896771</v>
       </c>
       <c r="Y18" t="n">
-        <v>1152.600340131816</v>
+        <v>1152.600340131817</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4011.852161231718</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="C19" t="n">
-        <v>3842.915978303811</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="D19" t="n">
-        <v>3842.915978303811</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="E19" t="n">
-        <v>3695.002884721418</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="F19" t="n">
-        <v>3548.112937223507</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="G19" t="n">
-        <v>3548.112937223507</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="H19" t="n">
-        <v>3398.167718801918</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="I19" t="n">
-        <v>3398.167718801918</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J19" t="n">
-        <v>3414.2351944912</v>
+        <v>113.0981828403468</v>
       </c>
       <c r="K19" t="n">
-        <v>3570.475829495778</v>
+        <v>269.3388178449243</v>
       </c>
       <c r="L19" t="n">
-        <v>3825.936485136679</v>
+        <v>524.7994734858255</v>
       </c>
       <c r="M19" t="n">
-        <v>4105.673051377578</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N19" t="n">
-        <v>4384.192723737091</v>
+        <v>1083.055712086237</v>
       </c>
       <c r="O19" t="n">
-        <v>4625.434425361889</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P19" t="n">
-        <v>4808.337694664801</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q19" t="n">
-        <v>4851.535357553236</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="R19" t="n">
-        <v>4742.851276089185</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="S19" t="n">
-        <v>4742.851276089185</v>
+        <v>1351.405062288698</v>
       </c>
       <c r="T19" t="n">
-        <v>4519.293070811534</v>
+        <v>1127.846857011046</v>
       </c>
       <c r="U19" t="n">
-        <v>4230.167332577426</v>
+        <v>838.7211187769384</v>
       </c>
       <c r="V19" t="n">
-        <v>4193.500626061958</v>
+        <v>584.0366305710515</v>
       </c>
       <c r="W19" t="n">
-        <v>4193.500626061958</v>
+        <v>294.6194605340909</v>
       </c>
       <c r="X19" t="n">
-        <v>4193.500626061958</v>
+        <v>294.6194605340909</v>
       </c>
       <c r="Y19" t="n">
-        <v>4193.500626061958</v>
+        <v>97.03070715106475</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>482.2224250642969</v>
       </c>
       <c r="H20" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767991</v>
       </c>
       <c r="I20" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J20" t="n">
-        <v>226.1824819356559</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K20" t="n">
-        <v>764.3650706567811</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L20" t="n">
-        <v>1484.304788867393</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M20" t="n">
-        <v>2301.982988382467</v>
+        <v>2451.356887250996</v>
       </c>
       <c r="N20" t="n">
-        <v>3118.260078476121</v>
+        <v>3118.260078476123</v>
       </c>
       <c r="O20" t="n">
-        <v>3843.859749927792</v>
+        <v>3843.859749927793</v>
       </c>
       <c r="P20" t="n">
-        <v>4425.467899262555</v>
+        <v>4425.467899262556</v>
       </c>
       <c r="Q20" t="n">
-        <v>4785.009637985157</v>
+        <v>4785.009637985158</v>
       </c>
       <c r="R20" t="n">
-        <v>4851.535357553236</v>
+        <v>4851.535357553237</v>
       </c>
       <c r="S20" t="n">
-        <v>4719.943484571005</v>
+        <v>4719.943484571006</v>
       </c>
       <c r="T20" t="n">
         <v>4509.873755704999</v>
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>984.3850031117485</v>
+        <v>984.3850031117487</v>
       </c>
       <c r="C21" t="n">
-        <v>809.9319738306215</v>
+        <v>809.9319738306217</v>
       </c>
       <c r="D21" t="n">
-        <v>660.9975641693702</v>
+        <v>660.9975641693704</v>
       </c>
       <c r="E21" t="n">
-        <v>501.7601091639148</v>
+        <v>501.7601091639149</v>
       </c>
       <c r="F21" t="n">
         <v>355.2255511907998</v>
       </c>
       <c r="G21" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H21" t="n">
         <v>123.0300194664402</v>
       </c>
       <c r="I21" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J21" t="n">
-        <v>269.2253106039749</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K21" t="n">
         <v>690.1541577727191</v>
       </c>
       <c r="L21" t="n">
-        <v>950.4173930736229</v>
+        <v>950.4173930736227</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.996921819143</v>
+        <v>1273.489181018301</v>
       </c>
       <c r="N21" t="n">
-        <v>1683.028103576356</v>
+        <v>1619.520362775513</v>
       </c>
       <c r="O21" t="n">
-        <v>1977.359237006873</v>
+        <v>1913.851496206031</v>
       </c>
       <c r="P21" t="n">
-        <v>2509.530994986214</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q21" t="n">
-        <v>2604.599437643575</v>
+        <v>2619.089245888247</v>
       </c>
       <c r="R21" t="n">
         <v>2619.089245888247</v>
@@ -5873,10 +5873,10 @@
         <v>1568.212139102303</v>
       </c>
       <c r="X21" t="n">
-        <v>1360.36063889677</v>
+        <v>1360.360638896771</v>
       </c>
       <c r="Y21" t="n">
-        <v>1152.600340131816</v>
+        <v>1152.600340131817</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>525.8475286917148</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="C22" t="n">
-        <v>356.911345763808</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="D22" t="n">
-        <v>356.911345763808</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="E22" t="n">
-        <v>356.911345763808</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="F22" t="n">
-        <v>356.911345763808</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="G22" t="n">
-        <v>356.911345763808</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="H22" t="n">
-        <v>206.9661273422188</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="I22" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J22" t="n">
         <v>113.0981828403468</v>
@@ -5919,16 +5919,16 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M22" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N22" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O22" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P22" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q22" t="n">
         <v>1550.398345902383</v>
@@ -5937,25 +5937,25 @@
         <v>1550.398345902383</v>
       </c>
       <c r="S22" t="n">
-        <v>1550.398345902383</v>
+        <v>1381.805859803689</v>
       </c>
       <c r="T22" t="n">
-        <v>1550.398345902383</v>
+        <v>1158.247654526037</v>
       </c>
       <c r="U22" t="n">
-        <v>1550.398345902383</v>
+        <v>869.1219162919296</v>
       </c>
       <c r="V22" t="n">
-        <v>1295.713857696496</v>
+        <v>614.4374280860427</v>
       </c>
       <c r="W22" t="n">
-        <v>1006.296687659535</v>
+        <v>325.0202580490821</v>
       </c>
       <c r="X22" t="n">
-        <v>778.3071367615178</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="Y22" t="n">
-        <v>557.5145576179876</v>
+        <v>97.03070715106475</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2422.232023996743</v>
+        <v>2422.232023996741</v>
       </c>
       <c r="C23" t="n">
-        <v>2053.269507056331</v>
+        <v>2053.26950705633</v>
       </c>
       <c r="D23" t="n">
         <v>1695.00380844958</v>
       </c>
       <c r="E23" t="n">
-        <v>1309.215555851336</v>
+        <v>1309.215555851335</v>
       </c>
       <c r="F23" t="n">
         <v>898.2296510617284</v>
       </c>
       <c r="G23" t="n">
-        <v>482.2224250642969</v>
+        <v>482.2224250642976</v>
       </c>
       <c r="H23" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767991</v>
       </c>
       <c r="I23" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J23" t="n">
-        <v>226.1824819356568</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K23" t="n">
-        <v>764.365070656782</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L23" t="n">
-        <v>1484.304788867394</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M23" t="n">
-        <v>2301.982988382468</v>
+        <v>2451.356887250996</v>
       </c>
       <c r="N23" t="n">
-        <v>3118.260078476122</v>
+        <v>3118.260078476123</v>
       </c>
       <c r="O23" t="n">
         <v>3843.859749927793</v>
@@ -6016,25 +6016,25 @@
         <v>4851.535357553237</v>
       </c>
       <c r="S23" t="n">
-        <v>4719.943484571006</v>
+        <v>4719.943484571005</v>
       </c>
       <c r="T23" t="n">
-        <v>4509.873755704999</v>
+        <v>4509.873755704998</v>
       </c>
       <c r="U23" t="n">
-        <v>4256.268496911441</v>
+        <v>4256.26849691144</v>
       </c>
       <c r="V23" t="n">
-        <v>3925.20560956787</v>
+        <v>3925.205609567869</v>
       </c>
       <c r="W23" t="n">
-        <v>3572.436954297756</v>
+        <v>3572.436954297755</v>
       </c>
       <c r="X23" t="n">
-        <v>3198.971196036676</v>
+        <v>3198.971196036675</v>
       </c>
       <c r="Y23" t="n">
-        <v>2808.831864060865</v>
+        <v>2808.831864060863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>984.3850031117485</v>
+        <v>984.3850031117487</v>
       </c>
       <c r="C24" t="n">
-        <v>809.9319738306215</v>
+        <v>809.9319738306217</v>
       </c>
       <c r="D24" t="n">
-        <v>660.9975641693702</v>
+        <v>660.9975641693704</v>
       </c>
       <c r="E24" t="n">
-        <v>501.7601091639148</v>
+        <v>501.7601091639149</v>
       </c>
       <c r="F24" t="n">
         <v>355.2255511907998</v>
       </c>
       <c r="G24" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H24" t="n">
         <v>123.0300194664402</v>
       </c>
       <c r="I24" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J24" t="n">
-        <v>144.3951856169702</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K24" t="n">
-        <v>326.3742098373848</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L24" t="n">
-        <v>953.769386988713</v>
+        <v>950.4173930736227</v>
       </c>
       <c r="M24" t="n">
-        <v>1276.841174933391</v>
+        <v>1273.489181018301</v>
       </c>
       <c r="N24" t="n">
-        <v>1622.872356690604</v>
+        <v>1619.520362775513</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.127186205083</v>
+        <v>1913.851496206031</v>
       </c>
       <c r="P24" t="n">
-        <v>2524.020803230887</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q24" t="n">
         <v>2619.089245888247</v>
@@ -6110,10 +6110,10 @@
         <v>1568.212139102303</v>
       </c>
       <c r="X24" t="n">
-        <v>1360.36063889677</v>
+        <v>1360.360638896771</v>
       </c>
       <c r="Y24" t="n">
-        <v>1152.600340131816</v>
+        <v>1152.600340131817</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>544.0244551575122</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="C25" t="n">
-        <v>375.0882722296053</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="D25" t="n">
-        <v>375.0882722296053</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="E25" t="n">
-        <v>375.0882722296053</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="F25" t="n">
-        <v>375.0882722296053</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="G25" t="n">
-        <v>206.9661273422188</v>
+        <v>246.9759255726539</v>
       </c>
       <c r="H25" t="n">
-        <v>206.9661273422188</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="I25" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J25" t="n">
         <v>113.0981828403468</v>
@@ -6156,16 +6156,16 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M25" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N25" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O25" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P25" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q25" t="n">
         <v>1550.398345902383</v>
@@ -6174,25 +6174,25 @@
         <v>1550.398345902383</v>
       </c>
       <c r="S25" t="n">
-        <v>1351.405062288698</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="T25" t="n">
-        <v>1127.846857011046</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="U25" t="n">
-        <v>1127.846857011046</v>
+        <v>1300.213153537715</v>
       </c>
       <c r="V25" t="n">
-        <v>873.1623688051592</v>
+        <v>1045.528665331828</v>
       </c>
       <c r="W25" t="n">
-        <v>583.7451987681986</v>
+        <v>1045.528665331828</v>
       </c>
       <c r="X25" t="n">
-        <v>583.7451987681986</v>
+        <v>817.5391144338103</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.7451987681986</v>
+        <v>596.7465352902801</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2422.232023996741</v>
+        <v>2422.232023996743</v>
       </c>
       <c r="C26" t="n">
-        <v>2053.26950705633</v>
+        <v>2053.269507056331</v>
       </c>
       <c r="D26" t="n">
-        <v>1695.00380844958</v>
+        <v>1695.003808449581</v>
       </c>
       <c r="E26" t="n">
-        <v>1309.215555851335</v>
+        <v>1309.215555851337</v>
       </c>
       <c r="F26" t="n">
-        <v>898.2296510617284</v>
+        <v>898.2296510617293</v>
       </c>
       <c r="G26" t="n">
         <v>482.2224250642976</v>
       </c>
       <c r="H26" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767991</v>
       </c>
       <c r="I26" t="n">
         <v>97.03070715106475</v>
       </c>
       <c r="J26" t="n">
-        <v>375.5563808041849</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K26" t="n">
-        <v>913.73896952531</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L26" t="n">
-        <v>1633.678687735922</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M26" t="n">
         <v>2451.356887250996</v>
@@ -6241,13 +6241,13 @@
         <v>3267.63397734465</v>
       </c>
       <c r="O26" t="n">
-        <v>3993.233648796321</v>
+        <v>3993.23364879632</v>
       </c>
       <c r="P26" t="n">
-        <v>4574.841798131084</v>
+        <v>4574.841798131083</v>
       </c>
       <c r="Q26" t="n">
-        <v>4785.009637985158</v>
+        <v>4850.068893659412</v>
       </c>
       <c r="R26" t="n">
         <v>4851.535357553237</v>
@@ -6256,22 +6256,22 @@
         <v>4719.943484571005</v>
       </c>
       <c r="T26" t="n">
-        <v>4509.873755704998</v>
+        <v>4509.873755704999</v>
       </c>
       <c r="U26" t="n">
-        <v>4256.26849691144</v>
+        <v>4256.268496911442</v>
       </c>
       <c r="V26" t="n">
-        <v>3925.205609567869</v>
+        <v>3925.205609567871</v>
       </c>
       <c r="W26" t="n">
-        <v>3572.436954297755</v>
+        <v>3572.436954297757</v>
       </c>
       <c r="X26" t="n">
-        <v>3198.971196036675</v>
+        <v>3198.971196036677</v>
       </c>
       <c r="Y26" t="n">
-        <v>2808.831864060863</v>
+        <v>2808.831864060865</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>355.2255511907998</v>
       </c>
       <c r="G27" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H27" t="n">
         <v>123.0300194664402</v>
@@ -6305,25 +6305,25 @@
         <v>97.03070715106475</v>
       </c>
       <c r="J27" t="n">
-        <v>144.3951856169703</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K27" t="n">
-        <v>303.5034481432616</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7666834441652</v>
+        <v>1135.716568214185</v>
       </c>
       <c r="M27" t="n">
-        <v>886.8384713888431</v>
+        <v>1458.788356158863</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.517911821029</v>
+        <v>1804.819537916076</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.849045251546</v>
+        <v>2099.150671346593</v>
       </c>
       <c r="P27" t="n">
-        <v>2524.020803230887</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q27" t="n">
         <v>2619.089245888247</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.0287479128965</v>
+        <v>712.9186954108069</v>
       </c>
       <c r="C28" t="n">
-        <v>397.0925649849896</v>
+        <v>543.9825124829</v>
       </c>
       <c r="D28" t="n">
-        <v>246.9759255726539</v>
+        <v>393.8658730705642</v>
       </c>
       <c r="E28" t="n">
-        <v>246.9759255726539</v>
+        <v>393.8658730705642</v>
       </c>
       <c r="F28" t="n">
         <v>246.9759255726539</v>
@@ -6393,43 +6393,43 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M28" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N28" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O28" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P28" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q28" t="n">
         <v>1550.398345902383</v>
       </c>
       <c r="R28" t="n">
-        <v>1441.714264438331</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="S28" t="n">
-        <v>1330.631553496421</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="T28" t="n">
-        <v>1330.631553496421</v>
+        <v>1411.973881176025</v>
       </c>
       <c r="U28" t="n">
-        <v>1041.505815262313</v>
+        <v>1411.973881176025</v>
       </c>
       <c r="V28" t="n">
-        <v>786.8213270564266</v>
+        <v>1411.973881176025</v>
       </c>
       <c r="W28" t="n">
-        <v>786.8213270564266</v>
+        <v>1122.556711139064</v>
       </c>
       <c r="X28" t="n">
-        <v>786.8213270564266</v>
+        <v>894.5671602410466</v>
       </c>
       <c r="Y28" t="n">
-        <v>566.0287479128965</v>
+        <v>894.5671602410466</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1309.215555851335</v>
       </c>
       <c r="F29" t="n">
-        <v>898.2296510617284</v>
+        <v>898.2296510617282</v>
       </c>
       <c r="G29" t="n">
         <v>482.2224250642969</v>
       </c>
       <c r="H29" t="n">
-        <v>175.0655515767991</v>
+        <v>175.065551576799</v>
       </c>
       <c r="I29" t="n">
         <v>97.03070715106475</v>
       </c>
       <c r="J29" t="n">
-        <v>375.5563808041849</v>
+        <v>226.1824819356574</v>
       </c>
       <c r="K29" t="n">
-        <v>913.73896952531</v>
+        <v>764.3650706567824</v>
       </c>
       <c r="L29" t="n">
-        <v>1549.364044541647</v>
+        <v>1484.304788867394</v>
       </c>
       <c r="M29" t="n">
-        <v>2367.042244056721</v>
+        <v>2301.982988382469</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.319334150375</v>
+        <v>3118.260078476123</v>
       </c>
       <c r="O29" t="n">
-        <v>3908.919005602046</v>
+        <v>3843.859749927793</v>
       </c>
       <c r="P29" t="n">
-        <v>4490.527154936809</v>
+        <v>4425.467899262556</v>
       </c>
       <c r="Q29" t="n">
-        <v>4850.068893659412</v>
+        <v>4785.009637985158</v>
       </c>
       <c r="R29" t="n">
         <v>4851.535357553237</v>
@@ -6493,7 +6493,7 @@
         <v>4719.943484571005</v>
       </c>
       <c r="T29" t="n">
-        <v>4509.873755704998</v>
+        <v>4509.873755704999</v>
       </c>
       <c r="U29" t="n">
         <v>4256.26849691144</v>
@@ -6533,7 +6533,7 @@
         <v>355.2255511907998</v>
       </c>
       <c r="G30" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H30" t="n">
         <v>123.0300194664402</v>
@@ -6542,25 +6542,25 @@
         <v>97.03070715106475</v>
       </c>
       <c r="J30" t="n">
-        <v>144.3951856169703</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K30" t="n">
-        <v>565.3240327857145</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L30" t="n">
-        <v>1192.719209937043</v>
+        <v>950.4173930736227</v>
       </c>
       <c r="M30" t="n">
-        <v>1515.790997881721</v>
+        <v>1273.489181018301</v>
       </c>
       <c r="N30" t="n">
-        <v>1861.822179638933</v>
+        <v>1619.520362775513</v>
       </c>
       <c r="O30" t="n">
-        <v>2156.153313069451</v>
+        <v>1913.851496206031</v>
       </c>
       <c r="P30" t="n">
-        <v>2524.020803230887</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q30" t="n">
         <v>2619.089245888247</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.7248514926057</v>
+        <v>415.269491450787</v>
       </c>
       <c r="C31" t="n">
-        <v>640.7886685646988</v>
+        <v>415.269491450787</v>
       </c>
       <c r="D31" t="n">
-        <v>640.7886685646988</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="E31" t="n">
-        <v>521.9782197275157</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="F31" t="n">
-        <v>375.0882722296053</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="G31" t="n">
-        <v>206.9661273422188</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="H31" t="n">
-        <v>206.9661273422188</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="I31" t="n">
         <v>97.03070715106475</v>
@@ -6630,43 +6630,43 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M31" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N31" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O31" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P31" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q31" t="n">
         <v>1550.398345902383</v>
       </c>
       <c r="R31" t="n">
-        <v>1550.398345902383</v>
+        <v>1441.714264438331</v>
       </c>
       <c r="S31" t="n">
-        <v>1550.398345902383</v>
+        <v>1242.720980824647</v>
       </c>
       <c r="T31" t="n">
-        <v>1326.840140624731</v>
+        <v>1019.162775546995</v>
       </c>
       <c r="U31" t="n">
-        <v>1037.714402390623</v>
+        <v>817.7105354245568</v>
       </c>
       <c r="V31" t="n">
-        <v>1037.714402390623</v>
+        <v>817.7105354245568</v>
       </c>
       <c r="W31" t="n">
-        <v>1037.714402390623</v>
+        <v>817.7105354245568</v>
       </c>
       <c r="X31" t="n">
-        <v>809.7248514926057</v>
+        <v>817.7105354245568</v>
       </c>
       <c r="Y31" t="n">
-        <v>809.7248514926057</v>
+        <v>596.9179562810267</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1309.215555851337</v>
       </c>
       <c r="F32" t="n">
-        <v>898.2296510617298</v>
+        <v>898.2296510617302</v>
       </c>
       <c r="G32" t="n">
-        <v>482.2224250642969</v>
+        <v>482.2224250642985</v>
       </c>
       <c r="H32" t="n">
-        <v>175.0655515767991</v>
+        <v>175.0655515768003</v>
       </c>
       <c r="I32" t="n">
         <v>97.03070715106475</v>
       </c>
       <c r="J32" t="n">
-        <v>291.2417376099099</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K32" t="n">
-        <v>829.4243263310351</v>
+        <v>764.3650706567824</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.364044541647</v>
+        <v>1484.304788867394</v>
       </c>
       <c r="M32" t="n">
-        <v>2367.042244056721</v>
+        <v>2301.982988382469</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.319334150375</v>
+        <v>3118.260078476123</v>
       </c>
       <c r="O32" t="n">
-        <v>3908.919005602046</v>
+        <v>3843.859749927793</v>
       </c>
       <c r="P32" t="n">
-        <v>4490.527154936809</v>
+        <v>4425.467899262556</v>
       </c>
       <c r="Q32" t="n">
-        <v>4850.068893659412</v>
+        <v>4785.009637985158</v>
       </c>
       <c r="R32" t="n">
         <v>4851.535357553237</v>
@@ -6730,7 +6730,7 @@
         <v>4719.943484571006</v>
       </c>
       <c r="T32" t="n">
-        <v>4509.873755704999</v>
+        <v>4509.873755705</v>
       </c>
       <c r="U32" t="n">
         <v>4256.268496911442</v>
@@ -6770,7 +6770,7 @@
         <v>355.2255511907998</v>
       </c>
       <c r="G33" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H33" t="n">
         <v>123.0300194664402</v>
@@ -6779,25 +6779,25 @@
         <v>97.03070715106475</v>
       </c>
       <c r="J33" t="n">
-        <v>144.3951856169703</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K33" t="n">
-        <v>401.0197649678096</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L33" t="n">
-        <v>1028.414942119138</v>
+        <v>1135.716568214185</v>
       </c>
       <c r="M33" t="n">
-        <v>1351.486730063816</v>
+        <v>1458.788356158863</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.517911821029</v>
+        <v>1804.819537916076</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.849045251546</v>
+        <v>2099.150671346593</v>
       </c>
       <c r="P33" t="n">
-        <v>2524.020803230887</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q33" t="n">
         <v>2619.089245888247</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.269491450787</v>
+        <v>731.9473469703404</v>
       </c>
       <c r="C34" t="n">
-        <v>415.269491450787</v>
+        <v>563.0111640424335</v>
       </c>
       <c r="D34" t="n">
-        <v>265.1528520384513</v>
+        <v>563.0111640424335</v>
       </c>
       <c r="E34" t="n">
-        <v>265.1528520384513</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="F34" t="n">
-        <v>265.1528520384513</v>
+        <v>415.0980704600404</v>
       </c>
       <c r="G34" t="n">
-        <v>97.03070715106475</v>
+        <v>246.9759255726539</v>
       </c>
       <c r="H34" t="n">
         <v>97.03070715106475</v>
@@ -6867,43 +6867,43 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M34" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N34" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O34" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P34" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q34" t="n">
         <v>1550.398345902383</v>
       </c>
       <c r="R34" t="n">
-        <v>1441.714264438331</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="S34" t="n">
-        <v>1441.714264438331</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="T34" t="n">
-        <v>1218.156059160679</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="U34" t="n">
-        <v>929.0303209265718</v>
+        <v>1261.272607668275</v>
       </c>
       <c r="V34" t="n">
-        <v>929.0303209265718</v>
+        <v>1242.157096150831</v>
       </c>
       <c r="W34" t="n">
-        <v>929.0303209265718</v>
+        <v>952.7399261138705</v>
       </c>
       <c r="X34" t="n">
-        <v>701.0407700285544</v>
+        <v>952.7399261138705</v>
       </c>
       <c r="Y34" t="n">
-        <v>596.9179562810267</v>
+        <v>731.9473469703404</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2422.232023996741</v>
+        <v>2422.232023996743</v>
       </c>
       <c r="C35" t="n">
-        <v>2053.26950705633</v>
+        <v>2053.269507056331</v>
       </c>
       <c r="D35" t="n">
-        <v>1695.00380844958</v>
+        <v>1695.003808449581</v>
       </c>
       <c r="E35" t="n">
-        <v>1309.215555851335</v>
+        <v>1309.215555851337</v>
       </c>
       <c r="F35" t="n">
-        <v>898.2296510617282</v>
+        <v>898.2296510617302</v>
       </c>
       <c r="G35" t="n">
-        <v>482.2224250642969</v>
+        <v>482.2224250642985</v>
       </c>
       <c r="H35" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515768003</v>
       </c>
       <c r="I35" t="n">
         <v>97.03070715106475</v>
       </c>
       <c r="J35" t="n">
-        <v>375.5563808041849</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K35" t="n">
-        <v>913.73896952531</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L35" t="n">
-        <v>1549.364044541647</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M35" t="n">
-        <v>2367.042244056721</v>
+        <v>2451.356887250996</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.319334150375</v>
+        <v>3267.63397734465</v>
       </c>
       <c r="O35" t="n">
-        <v>3908.919005602046</v>
+        <v>3993.23364879632</v>
       </c>
       <c r="P35" t="n">
-        <v>4490.527154936809</v>
+        <v>4574.841798131083</v>
       </c>
       <c r="Q35" t="n">
         <v>4850.068893659412</v>
@@ -6967,22 +6967,22 @@
         <v>4719.943484571006</v>
       </c>
       <c r="T35" t="n">
-        <v>4509.873755704999</v>
+        <v>4509.873755705</v>
       </c>
       <c r="U35" t="n">
-        <v>4256.26849691144</v>
+        <v>4256.268496911442</v>
       </c>
       <c r="V35" t="n">
-        <v>3925.205609567869</v>
+        <v>3925.205609567871</v>
       </c>
       <c r="W35" t="n">
-        <v>3572.436954297755</v>
+        <v>3572.436954297757</v>
       </c>
       <c r="X35" t="n">
-        <v>3198.971196036675</v>
+        <v>3198.971196036677</v>
       </c>
       <c r="Y35" t="n">
-        <v>2808.831864060863</v>
+        <v>2808.831864060865</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>355.2255511907998</v>
       </c>
       <c r="G36" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H36" t="n">
         <v>123.0300194664402</v>
@@ -7016,25 +7016,25 @@
         <v>97.03070715106475</v>
       </c>
       <c r="J36" t="n">
-        <v>144.3951856169703</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K36" t="n">
-        <v>303.5034481432616</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L36" t="n">
-        <v>930.8986252945898</v>
+        <v>950.4173930736227</v>
       </c>
       <c r="M36" t="n">
-        <v>1666.764871017353</v>
+        <v>1273.489181018301</v>
       </c>
       <c r="N36" t="n">
-        <v>2012.796052774566</v>
+        <v>1619.520362775513</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.127186205083</v>
+        <v>1913.851496206031</v>
       </c>
       <c r="P36" t="n">
-        <v>2524.020803230887</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q36" t="n">
         <v>2619.089245888247</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3804.938304912573</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="C37" t="n">
-        <v>3804.938304912573</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="D37" t="n">
-        <v>3804.938304912573</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="E37" t="n">
-        <v>3804.938304912573</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="F37" t="n">
-        <v>3658.048357414662</v>
+        <v>265.1528520384513</v>
       </c>
       <c r="G37" t="n">
-        <v>3658.048357414662</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="H37" t="n">
-        <v>3508.103138993073</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="I37" t="n">
-        <v>3398.167718801919</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J37" t="n">
-        <v>3414.235194491201</v>
+        <v>113.0981828403468</v>
       </c>
       <c r="K37" t="n">
-        <v>3570.475829495779</v>
+        <v>269.3388178449243</v>
       </c>
       <c r="L37" t="n">
-        <v>3825.93648513668</v>
+        <v>524.7994734858255</v>
       </c>
       <c r="M37" t="n">
-        <v>4105.673051377579</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N37" t="n">
-        <v>4384.192723737092</v>
+        <v>1083.055712086237</v>
       </c>
       <c r="O37" t="n">
-        <v>4625.43442536189</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P37" t="n">
-        <v>4808.337694664802</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q37" t="n">
-        <v>4851.535357553237</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="R37" t="n">
-        <v>4851.535357553237</v>
+        <v>1441.714264438331</v>
       </c>
       <c r="S37" t="n">
-        <v>4652.542073939552</v>
+        <v>1441.714264438331</v>
       </c>
       <c r="T37" t="n">
-        <v>4428.9838686619</v>
+        <v>1280.028713345646</v>
       </c>
       <c r="U37" t="n">
-        <v>4428.9838686619</v>
+        <v>990.9029751115385</v>
       </c>
       <c r="V37" t="n">
-        <v>4428.9838686619</v>
+        <v>736.2184869056516</v>
       </c>
       <c r="W37" t="n">
-        <v>4428.9838686619</v>
+        <v>446.8013168686909</v>
       </c>
       <c r="X37" t="n">
-        <v>4200.994317763883</v>
+        <v>446.8013168686909</v>
       </c>
       <c r="Y37" t="n">
-        <v>3980.201738620353</v>
+        <v>446.8013168686909</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2422.232023996743</v>
+        <v>2422.232023996742</v>
       </c>
       <c r="C38" t="n">
-        <v>2053.269507056331</v>
+        <v>2053.26950705633</v>
       </c>
       <c r="D38" t="n">
-        <v>1695.003808449581</v>
+        <v>1695.00380844958</v>
       </c>
       <c r="E38" t="n">
-        <v>1309.215555851337</v>
+        <v>1309.215555851336</v>
       </c>
       <c r="F38" t="n">
-        <v>898.2296510617298</v>
+        <v>898.2296510617282</v>
       </c>
       <c r="G38" t="n">
-        <v>482.2224250642969</v>
+        <v>482.2224250642971</v>
       </c>
       <c r="H38" t="n">
-        <v>175.0655515767991</v>
+        <v>175.065551576799</v>
       </c>
       <c r="I38" t="n">
-        <v>97.03070715106475</v>
+        <v>97.03070715106473</v>
       </c>
       <c r="J38" t="n">
-        <v>375.5563808041849</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K38" t="n">
-        <v>913.73896952531</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L38" t="n">
-        <v>1633.678687735922</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M38" t="n">
         <v>2451.356887250996</v>
       </c>
       <c r="N38" t="n">
-        <v>3267.63397734465</v>
+        <v>3118.260078476122</v>
       </c>
       <c r="O38" t="n">
-        <v>3993.233648796321</v>
+        <v>3843.859749927792</v>
       </c>
       <c r="P38" t="n">
-        <v>4574.841798131084</v>
+        <v>4425.467899262555</v>
       </c>
       <c r="Q38" t="n">
-        <v>4850.068893659412</v>
+        <v>4785.009637985157</v>
       </c>
       <c r="R38" t="n">
-        <v>4851.535357553237</v>
+        <v>4851.535357553236</v>
       </c>
       <c r="S38" t="n">
-        <v>4719.943484571006</v>
+        <v>4719.943484571005</v>
       </c>
       <c r="T38" t="n">
         <v>4509.873755704999</v>
       </c>
       <c r="U38" t="n">
-        <v>4256.268496911442</v>
+        <v>4256.268496911441</v>
       </c>
       <c r="V38" t="n">
-        <v>3925.205609567871</v>
+        <v>3925.20560956787</v>
       </c>
       <c r="W38" t="n">
-        <v>3572.436954297757</v>
+        <v>3572.436954297756</v>
       </c>
       <c r="X38" t="n">
-        <v>3198.971196036677</v>
+        <v>3198.971196036676</v>
       </c>
       <c r="Y38" t="n">
-        <v>2808.831864060865</v>
+        <v>2808.831864060864</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>123.0300194664402</v>
       </c>
       <c r="I39" t="n">
-        <v>97.03070715106475</v>
+        <v>97.03070715106473</v>
       </c>
       <c r="J39" t="n">
-        <v>144.3951856169703</v>
+        <v>269.2253106039749</v>
       </c>
       <c r="K39" t="n">
-        <v>303.5034481432616</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7666834441652</v>
+        <v>1135.716568214185</v>
       </c>
       <c r="M39" t="n">
-        <v>969.7495973140722</v>
+        <v>1458.788356158863</v>
       </c>
       <c r="N39" t="n">
-        <v>1790.329729671403</v>
+        <v>1804.819537916076</v>
       </c>
       <c r="O39" t="n">
-        <v>2084.66086310192</v>
+        <v>2099.150671346593</v>
       </c>
       <c r="P39" t="n">
-        <v>2301.554480127724</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q39" t="n">
-        <v>2604.599437643575</v>
+        <v>2619.089245888247</v>
       </c>
       <c r="R39" t="n">
         <v>2619.089245888247</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.03070715106475</v>
+        <v>134.9630687266512</v>
       </c>
       <c r="C40" t="n">
-        <v>97.03070715106475</v>
+        <v>134.9630687266512</v>
       </c>
       <c r="D40" t="n">
-        <v>97.03070715106475</v>
+        <v>134.9630687266512</v>
       </c>
       <c r="E40" t="n">
-        <v>97.03070715106475</v>
+        <v>134.9630687266512</v>
       </c>
       <c r="F40" t="n">
-        <v>97.03070715106475</v>
+        <v>97.03070715106473</v>
       </c>
       <c r="G40" t="n">
-        <v>97.03070715106475</v>
+        <v>97.03070715106473</v>
       </c>
       <c r="H40" t="n">
-        <v>97.03070715106475</v>
+        <v>97.03070715106473</v>
       </c>
       <c r="I40" t="n">
-        <v>97.03070715106475</v>
+        <v>97.03070715106473</v>
       </c>
       <c r="J40" t="n">
         <v>113.0981828403468</v>
@@ -7341,43 +7341,43 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M40" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N40" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O40" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P40" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q40" t="n">
         <v>1550.398345902383</v>
       </c>
       <c r="R40" t="n">
-        <v>1441.714264438331</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="S40" t="n">
-        <v>1242.720980824647</v>
+        <v>1351.405062288698</v>
       </c>
       <c r="T40" t="n">
-        <v>1019.162775546995</v>
+        <v>1127.846857011046</v>
       </c>
       <c r="U40" t="n">
-        <v>1019.162775546995</v>
+        <v>1127.846857011046</v>
       </c>
       <c r="V40" t="n">
-        <v>1016.878472059813</v>
+        <v>873.1623688051592</v>
       </c>
       <c r="W40" t="n">
-        <v>727.4613020228519</v>
+        <v>583.7451987681986</v>
       </c>
       <c r="X40" t="n">
-        <v>499.4717511248346</v>
+        <v>355.7556478701813</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.6791719813044</v>
+        <v>134.9630687266512</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2422.232023996742</v>
+        <v>2422.232023996743</v>
       </c>
       <c r="C41" t="n">
-        <v>2053.26950705633</v>
+        <v>2053.269507056331</v>
       </c>
       <c r="D41" t="n">
-        <v>1695.00380844958</v>
+        <v>1695.003808449581</v>
       </c>
       <c r="E41" t="n">
-        <v>1309.215555851336</v>
+        <v>1309.215555851337</v>
       </c>
       <c r="F41" t="n">
-        <v>898.2296510617284</v>
+        <v>898.2296510617293</v>
       </c>
       <c r="G41" t="n">
-        <v>482.2224250642969</v>
+        <v>482.2224250642976</v>
       </c>
       <c r="H41" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767991</v>
       </c>
       <c r="I41" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J41" t="n">
-        <v>226.1824819356559</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K41" t="n">
-        <v>764.3650706567811</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L41" t="n">
-        <v>1484.304788867393</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M41" t="n">
-        <v>2301.982988382467</v>
+        <v>2451.356887250996</v>
       </c>
       <c r="N41" t="n">
-        <v>3118.260078476121</v>
+        <v>3267.63397734465</v>
       </c>
       <c r="O41" t="n">
-        <v>3843.859749927792</v>
+        <v>3993.23364879632</v>
       </c>
       <c r="P41" t="n">
-        <v>4425.467899262555</v>
+        <v>4574.841798131083</v>
       </c>
       <c r="Q41" t="n">
-        <v>4785.009637985157</v>
+        <v>4850.068893659412</v>
       </c>
       <c r="R41" t="n">
-        <v>4851.535357553236</v>
+        <v>4851.535357553237</v>
       </c>
       <c r="S41" t="n">
-        <v>4719.943484571006</v>
+        <v>4719.943484571005</v>
       </c>
       <c r="T41" t="n">
         <v>4509.873755704999</v>
       </c>
       <c r="U41" t="n">
-        <v>4256.268496911441</v>
+        <v>4256.268496911442</v>
       </c>
       <c r="V41" t="n">
-        <v>3925.20560956787</v>
+        <v>3925.205609567871</v>
       </c>
       <c r="W41" t="n">
-        <v>3572.436954297756</v>
+        <v>3572.436954297757</v>
       </c>
       <c r="X41" t="n">
-        <v>3198.971196036676</v>
+        <v>3198.971196036677</v>
       </c>
       <c r="Y41" t="n">
-        <v>2808.831864060864</v>
+        <v>2808.831864060865</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>984.3850031117485</v>
+        <v>984.3850031117487</v>
       </c>
       <c r="C42" t="n">
-        <v>809.9319738306215</v>
+        <v>809.9319738306217</v>
       </c>
       <c r="D42" t="n">
-        <v>660.9975641693702</v>
+        <v>660.9975641693704</v>
       </c>
       <c r="E42" t="n">
-        <v>501.7601091639148</v>
+        <v>501.7601091639149</v>
       </c>
       <c r="F42" t="n">
         <v>355.2255511907998</v>
       </c>
       <c r="G42" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H42" t="n">
         <v>123.0300194664402</v>
       </c>
       <c r="I42" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J42" t="n">
-        <v>269.2253106039749</v>
+        <v>269.225310603975</v>
       </c>
       <c r="K42" t="n">
-        <v>428.3335731302664</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L42" t="n">
-        <v>688.5968084311701</v>
+        <v>1135.716568214185</v>
       </c>
       <c r="M42" t="n">
-        <v>1011.668596375848</v>
+        <v>1458.788356158863</v>
       </c>
       <c r="N42" t="n">
-        <v>1357.699778133061</v>
+        <v>1804.819537916076</v>
       </c>
       <c r="O42" t="n">
-        <v>1783.872530393055</v>
+        <v>2099.150671346593</v>
       </c>
       <c r="P42" t="n">
         <v>2316.044288372396</v>
@@ -7532,10 +7532,10 @@
         <v>1568.212139102303</v>
       </c>
       <c r="X42" t="n">
-        <v>1360.36063889677</v>
+        <v>1360.360638896771</v>
       </c>
       <c r="Y42" t="n">
-        <v>1152.600340131816</v>
+        <v>1152.600340131817</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>353.8560748401292</v>
+        <v>671.9234381491049</v>
       </c>
       <c r="C43" t="n">
-        <v>353.8560748401292</v>
+        <v>671.9234381491049</v>
       </c>
       <c r="D43" t="n">
-        <v>353.8560748401292</v>
+        <v>671.9234381491049</v>
       </c>
       <c r="E43" t="n">
-        <v>353.8560748401292</v>
+        <v>671.9234381491049</v>
       </c>
       <c r="F43" t="n">
-        <v>206.9661273422188</v>
+        <v>525.0334906511945</v>
       </c>
       <c r="G43" t="n">
-        <v>206.9661273422188</v>
+        <v>356.911345763808</v>
       </c>
       <c r="H43" t="n">
         <v>206.9661273422188</v>
       </c>
       <c r="I43" t="n">
-        <v>97.03070715106473</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="J43" t="n">
         <v>113.0981828403468</v>
@@ -7578,16 +7578,16 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M43" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N43" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O43" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P43" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q43" t="n">
         <v>1550.398345902383</v>
@@ -7596,25 +7596,25 @@
         <v>1550.398345902383</v>
       </c>
       <c r="S43" t="n">
-        <v>1351.405062288698</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="T43" t="n">
-        <v>1351.405062288698</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="U43" t="n">
-        <v>1062.27932405459</v>
+        <v>1261.272607668275</v>
       </c>
       <c r="V43" t="n">
-        <v>807.5948358487034</v>
+        <v>1006.588119462388</v>
       </c>
       <c r="W43" t="n">
-        <v>574.6486539836593</v>
+        <v>717.1709494254274</v>
       </c>
       <c r="X43" t="n">
-        <v>574.6486539836593</v>
+        <v>671.9234381491049</v>
       </c>
       <c r="Y43" t="n">
-        <v>353.8560748401292</v>
+        <v>671.9234381491049</v>
       </c>
     </row>
     <row r="44">
@@ -7630,31 +7630,31 @@
         <v>2053.269507056331</v>
       </c>
       <c r="D44" t="n">
-        <v>1695.003808449581</v>
+        <v>1695.00380844958</v>
       </c>
       <c r="E44" t="n">
-        <v>1309.215555851337</v>
+        <v>1309.215555851336</v>
       </c>
       <c r="F44" t="n">
-        <v>898.2296510617296</v>
+        <v>898.2296510617284</v>
       </c>
       <c r="G44" t="n">
         <v>482.2224250642969</v>
       </c>
       <c r="H44" t="n">
-        <v>175.065551576799</v>
+        <v>175.0655515767991</v>
       </c>
       <c r="I44" t="n">
         <v>97.03070715106475</v>
       </c>
       <c r="J44" t="n">
-        <v>375.5563808041849</v>
+        <v>375.5563808041848</v>
       </c>
       <c r="K44" t="n">
-        <v>913.73896952531</v>
+        <v>913.7389695253098</v>
       </c>
       <c r="L44" t="n">
-        <v>1633.678687735922</v>
+        <v>1633.678687735921</v>
       </c>
       <c r="M44" t="n">
         <v>2451.356887250996</v>
@@ -7663,10 +7663,10 @@
         <v>3267.63397734465</v>
       </c>
       <c r="O44" t="n">
-        <v>3993.233648796321</v>
+        <v>3993.23364879632</v>
       </c>
       <c r="P44" t="n">
-        <v>4425.467899262556</v>
+        <v>4574.841798131083</v>
       </c>
       <c r="Q44" t="n">
         <v>4785.009637985158</v>
@@ -7681,16 +7681,16 @@
         <v>4509.873755704999</v>
       </c>
       <c r="U44" t="n">
-        <v>4256.268496911442</v>
+        <v>4256.268496911441</v>
       </c>
       <c r="V44" t="n">
-        <v>3925.205609567871</v>
+        <v>3925.20560956787</v>
       </c>
       <c r="W44" t="n">
-        <v>3572.436954297757</v>
+        <v>3572.436954297756</v>
       </c>
       <c r="X44" t="n">
-        <v>3198.971196036677</v>
+        <v>3198.971196036676</v>
       </c>
       <c r="Y44" t="n">
         <v>2808.831864060865</v>
@@ -7718,7 +7718,7 @@
         <v>355.2255511907998</v>
       </c>
       <c r="G45" t="n">
-        <v>218.3623018545188</v>
+        <v>218.3623018545189</v>
       </c>
       <c r="H45" t="n">
         <v>123.0300194664402</v>
@@ -7730,22 +7730,22 @@
         <v>269.225310603975</v>
       </c>
       <c r="K45" t="n">
-        <v>428.3335731302664</v>
+        <v>690.1541577727191</v>
       </c>
       <c r="L45" t="n">
-        <v>688.5968084311701</v>
+        <v>950.4173930736227</v>
       </c>
       <c r="M45" t="n">
-        <v>1472.716609488348</v>
+        <v>1273.489181018301</v>
       </c>
       <c r="N45" t="n">
-        <v>1818.747791245561</v>
+        <v>1619.520362775513</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.127186205083</v>
+        <v>1913.851496206031</v>
       </c>
       <c r="P45" t="n">
-        <v>2524.020803230887</v>
+        <v>2316.044288372396</v>
       </c>
       <c r="Q45" t="n">
         <v>2619.089245888247</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.8310262564472</v>
+        <v>493.6127441477756</v>
       </c>
       <c r="C46" t="n">
-        <v>801.8310262564472</v>
+        <v>493.6127441477756</v>
       </c>
       <c r="D46" t="n">
-        <v>651.7143868441115</v>
+        <v>493.6127441477756</v>
       </c>
       <c r="E46" t="n">
-        <v>503.8012932617183</v>
+        <v>493.6127441477756</v>
       </c>
       <c r="F46" t="n">
-        <v>356.911345763808</v>
+        <v>346.7227966498652</v>
       </c>
       <c r="G46" t="n">
-        <v>356.911345763808</v>
+        <v>178.6006517624787</v>
       </c>
       <c r="H46" t="n">
-        <v>206.9661273422188</v>
+        <v>97.03070715106475</v>
       </c>
       <c r="I46" t="n">
         <v>97.03070715106475</v>
@@ -7815,43 +7815,43 @@
         <v>524.7994734858255</v>
       </c>
       <c r="M46" t="n">
-        <v>804.5360397267248</v>
+        <v>804.5360397267247</v>
       </c>
       <c r="N46" t="n">
         <v>1083.055712086237</v>
       </c>
       <c r="O46" t="n">
-        <v>1324.297413711036</v>
+        <v>1324.297413711035</v>
       </c>
       <c r="P46" t="n">
-        <v>1507.200683013948</v>
+        <v>1507.200683013947</v>
       </c>
       <c r="Q46" t="n">
         <v>1550.398345902383</v>
       </c>
       <c r="R46" t="n">
-        <v>1441.714264438331</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="S46" t="n">
-        <v>1427.830275507869</v>
+        <v>1550.398345902383</v>
       </c>
       <c r="T46" t="n">
-        <v>1204.272070230217</v>
+        <v>1326.840140624731</v>
       </c>
       <c r="U46" t="n">
-        <v>1204.272070230217</v>
+        <v>1037.714402390623</v>
       </c>
       <c r="V46" t="n">
-        <v>1204.272070230217</v>
+        <v>783.0299141847362</v>
       </c>
       <c r="W46" t="n">
-        <v>1204.272070230217</v>
+        <v>493.6127441477756</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.272070230217</v>
+        <v>493.6127441477756</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.4794910866869</v>
+        <v>493.6127441477756</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093848</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>249.7501596750567</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>186.3048981658405</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>149.002100311894</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>137.5742284867207</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
         <v>387.9064735273546</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18.21388904224654</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>229.9174551329187</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>204.8764384166867</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>187.1708839803662</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.21388904224654</v>
+        <v>83.93030891523009</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>436.9999510488314</v>
       </c>
       <c r="N15" t="n">
-        <v>75.4793561525359</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>30.88549986720699</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>173.262686441339</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.43226453007733</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>187.1708839803663</v>
       </c>
       <c r="M18" t="n">
-        <v>183.8648370566235</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.21388904224654</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>286.4641982821587</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>64.14923313216411</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>187.1708839803662</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>18.21388904224744</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>286.4641982821587</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>23.10177948901332</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>187.1708839803662</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.43226453007824</v>
+        <v>127.1486844030622</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>187.1708839803663</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.3416754292654</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>18.21388904224807</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>332.4949082936071</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>152.4988617531647</v>
+        <v>187.1708839803662</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>83.93030891523037</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>173.262686441339</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>98.50133012580602</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>187.1708839803663</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>332.4949082936071</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>127.1486844030622</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>416.9640987657433</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>187.1708839803662</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>286.4641982821578</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>127.1486844030612</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>187.1708839803663</v>
       </c>
       <c r="M39" t="n">
-        <v>83.748612045686</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>18.21388904224654</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>127.1486844030622</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>187.1708839803663</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>133.1733523530074</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>170.9159820416562</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>61.43226453007924</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>196.0083449787934</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>187.1708839803662</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>30.88549986720699</v>
+        <v>30.885499867207</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4409234385126</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.4457662373732</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8360659892425</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.7507804835131</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3226232248754</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2344808517665</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>146.3672744150624</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.89404619854942</v>
+        <v>108.8360659892425</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>107.5972406494108</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.3226232248754</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2344808517665</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>73.09146785987326</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4409234385126</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.4457662373732</v>
       </c>
       <c r="I19" t="n">
         <v>108.8360659892425</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.5972406494108</v>
       </c>
       <c r="S19" t="n">
-        <v>197.0033507775478</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>215.8376038735139</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>22.97178750289888</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.4816215449272</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>166.4409234385126</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.4457662373732</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>108.8360659892425</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>107.5972406494108</v>
       </c>
       <c r="S22" t="n">
-        <v>197.0033507775478</v>
+        <v>30.09678953984135</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3226232248754</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2344808517665</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.5084440073577</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.4457662373732</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>108.8360659892425</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>107.5972406494108</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.3226232248754</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2344808517665</v>
+        <v>38.55114041074526</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4409234385126</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>107.5972406494108</v>
       </c>
       <c r="S28" t="n">
-        <v>87.03146694505652</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3226232248754</v>
+        <v>84.2824031457811</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2344808517665</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28.81161829775789</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>148.4457662373732</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>108.8360659892425</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>107.5972406494108</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.0033507775478</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>86.79676313055307</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.4457662373732</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>108.8360659892425</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>107.5972406494108</v>
       </c>
       <c r="S34" t="n">
         <v>197.0033507775478</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.3226232248754</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>233.2132869215589</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5030677420423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.321180811234427</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4409234385126</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.4457662373732</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>108.8360659892425</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>107.5972406494108</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>61.25392764311721</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2344808517665</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>107.8680100631007</v>
       </c>
       <c r="G40" t="n">
         <v>166.4409234385126</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>107.5972406494108</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>286.2344808517665</v>
       </c>
       <c r="V40" t="n">
-        <v>249.8761828715177</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4409234385126</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.4457662373732</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>107.5972406494108</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T43" t="n">
         <v>221.3226232248754</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>55.90627829019738</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9146192254779</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4409234385126</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>67.69152107207341</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>108.8360659892425</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>107.5972406494108</v>
       </c>
       <c r="S46" t="n">
-        <v>183.2582017363899</v>
+        <v>197.0033507775478</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2344808517665</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752099.149465936</v>
+        <v>752099.1494659359</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752099.1494659359</v>
+        <v>752099.149465936</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752099.1494659359</v>
+        <v>752099.149465936</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752099.1494659361</v>
+        <v>752099.1494659359</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752099.149465936</v>
+        <v>752099.1494659359</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752099.149465936</v>
+        <v>752099.1494659359</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752099.149465936</v>
+        <v>752099.1494659359</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>665907.4696114758</v>
+      </c>
+      <c r="F2" t="n">
         <v>665907.4696114766</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>665907.4696114763</v>
+      </c>
+      <c r="H2" t="n">
         <v>665907.4696114765</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>665907.4696114765</v>
+      </c>
+      <c r="J2" t="n">
         <v>665907.4696114766</v>
       </c>
-      <c r="H2" t="n">
-        <v>665907.4696114762</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>665907.4696114764</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665907.4696114765</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665907.4696114765</v>
+      </c>
+      <c r="N2" t="n">
         <v>665907.4696114763</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>665907.4696114765</v>
       </c>
-      <c r="K2" t="n">
-        <v>665907.4696114763</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665907.4696114763</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>665907.4696114764</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665907.4696114765</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665907.4696114764</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665907.4696114763</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>547919.0030766489</v>
+        <v>547919.0030766488</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124991</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
         <v>3323.773824475296</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>47808.94719320164</v>
+        <v>47808.94719320165</v>
       </c>
       <c r="F4" t="n">
+        <v>47808.94719320165</v>
+      </c>
+      <c r="G4" t="n">
+        <v>47808.94719320166</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47808.94719320166</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47808.94719320166</v>
+      </c>
+      <c r="J4" t="n">
         <v>47808.94719320167</v>
       </c>
-      <c r="G4" t="n">
-        <v>47808.94719320163</v>
-      </c>
-      <c r="H4" t="n">
-        <v>47808.94719320164</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>47808.94719320166</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47808.94719320166</v>
+      </c>
+      <c r="M4" t="n">
+        <v>47808.94719320167</v>
+      </c>
+      <c r="N4" t="n">
         <v>47808.94719320165</v>
       </c>
-      <c r="J4" t="n">
-        <v>47808.94719320165</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47808.94719320165</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47808.94719320165</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>47808.94719320167</v>
+      </c>
+      <c r="P4" t="n">
         <v>47808.94719320166</v>
-      </c>
-      <c r="N4" t="n">
-        <v>47808.94719320166</v>
-      </c>
-      <c r="O4" t="n">
-        <v>47808.94719320163</v>
-      </c>
-      <c r="P4" t="n">
-        <v>47808.94719320165</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>92482.10436521226</v>
       </c>
       <c r="G5" t="n">
-        <v>92482.10436521226</v>
+        <v>92482.10436521228</v>
       </c>
       <c r="H5" t="n">
-        <v>92482.10436521226</v>
+        <v>92482.10436521228</v>
       </c>
       <c r="I5" t="n">
-        <v>92482.10436521226</v>
+        <v>92482.10436521228</v>
       </c>
       <c r="J5" t="n">
         <v>92482.10436521228</v>
@@ -26505,10 +26505,10 @@
         <v>92482.10436521228</v>
       </c>
       <c r="N5" t="n">
+        <v>92482.10436521226</v>
+      </c>
+      <c r="O5" t="n">
         <v>92482.10436521228</v>
-      </c>
-      <c r="O5" t="n">
-        <v>92482.10436521226</v>
       </c>
       <c r="P5" t="n">
         <v>92482.10436521228</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207745.2322294002</v>
+        <v>207745.2322293995</v>
       </c>
       <c r="C6" t="n">
-        <v>306277.8130856765</v>
+        <v>306277.8130856764</v>
       </c>
       <c r="D6" t="n">
-        <v>-3221.7017601876</v>
+        <v>-3221.701760188007</v>
       </c>
       <c r="E6" t="n">
-        <v>-22302.58502358617</v>
+        <v>-23243.11545809174</v>
       </c>
       <c r="F6" t="n">
-        <v>525616.4180530626</v>
+        <v>524675.8876185579</v>
       </c>
       <c r="G6" t="n">
-        <v>525616.4180530627</v>
+        <v>524675.8876185576</v>
       </c>
       <c r="H6" t="n">
-        <v>525616.4180530623</v>
+        <v>524675.8876185578</v>
       </c>
       <c r="I6" t="n">
-        <v>525616.4180530624</v>
+        <v>524675.8876185578</v>
       </c>
       <c r="J6" t="n">
-        <v>456740.7193218127</v>
+        <v>455800.188887308</v>
       </c>
       <c r="K6" t="n">
-        <v>522292.6442285872</v>
+        <v>521352.1137940824</v>
       </c>
       <c r="L6" t="n">
-        <v>424853.106113782</v>
+        <v>423912.5756792774</v>
       </c>
       <c r="M6" t="n">
-        <v>391395.9992616646</v>
+        <v>390455.4688271598</v>
       </c>
       <c r="N6" t="n">
-        <v>525616.4180530626</v>
+        <v>524675.8876185576</v>
       </c>
       <c r="O6" t="n">
-        <v>525616.4180530625</v>
+        <v>524675.8876185578</v>
       </c>
       <c r="P6" t="n">
-        <v>525616.4180530624</v>
+        <v>524675.8876185577</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="F3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="G3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="H3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="I3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="J3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="K3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="L3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="M3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="N3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="O3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
       <c r="P3" t="n">
-        <v>859.5764646973886</v>
+        <v>859.5764646973885</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1212.883839388309</v>
@@ -26968,7 +26968,7 @@
         <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
-        <v>481.832800480302</v>
+        <v>481.8328004803018</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522</v>
       </c>
       <c r="E4" t="n">
-        <v>538.5965666337535</v>
+        <v>538.5965666337536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
         <v>12.91447975068888</v>
@@ -27044,7 +27044,7 @@
         <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>538.5965666337535</v>
+        <v>538.5965666337536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522</v>
       </c>
       <c r="M4" t="n">
-        <v>538.5965666337535</v>
+        <v>538.5965666337536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>264.781052869964</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>92.8342891606485</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>35.10636441442045</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>122.4875275144655</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.0199415625256</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27584,7 +27584,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>15.59235192972153</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>137.1961830292923</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E5" t="n">
         <v>105.7738563699063</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>116.8322838942971</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.4544001814401</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>35.71701380412522</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27800,7 +27800,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>278.4312117930717</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.38571004992889</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.6755676849753</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>157.9692791636976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>111.5271211223675</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31041,19 +31041,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367558</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887679</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760344</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31074,10 +31074,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679516</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332509</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T2" t="n">
         <v>0.4049892772318401</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0495004835149808</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H3" t="n">
         <v>0.4780704592104726</v>
@@ -31129,7 +31129,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
         <v>7.993242550750212</v>
@@ -31147,7 +31147,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522957</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
         <v>6.318693299210532</v>
@@ -31220,7 +31220,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
         <v>5.865771705150827</v>
@@ -31238,7 +31238,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
         <v>0.002263611411815345</v>
@@ -31755,34 +31755,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H11" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I11" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J11" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K11" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L11" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M11" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N11" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O11" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P11" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q11" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R11" t="n">
         <v>217.0668144745622</v>
@@ -31791,10 +31791,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T11" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I12" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J12" t="n">
         <v>174.6805342079854</v>
@@ -31852,10 +31852,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N12" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O12" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P12" t="n">
         <v>353.0588690565557</v>
@@ -31867,13 +31867,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S12" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T12" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,13 +31916,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I13" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J13" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K13" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L13" t="n">
         <v>230.4510410436245</v>
@@ -31934,7 +31934,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O13" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P13" t="n">
         <v>187.4722178087549</v>
@@ -31943,16 +31943,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R13" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S13" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T13" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,34 +31992,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H14" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I14" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J14" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K14" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L14" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M14" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N14" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O14" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P14" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q14" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R14" t="n">
         <v>217.0668144745622</v>
@@ -32028,10 +32028,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T14" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I15" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J15" t="n">
         <v>174.6805342079854</v>
@@ -32089,10 +32089,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N15" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O15" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P15" t="n">
         <v>353.0588690565557</v>
@@ -32104,13 +32104,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S15" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T15" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,13 +32153,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I16" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J16" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K16" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L16" t="n">
         <v>230.4510410436245</v>
@@ -32171,7 +32171,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O16" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P16" t="n">
         <v>187.4722178087549</v>
@@ -32180,16 +32180,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R16" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S16" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T16" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,34 +32229,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H17" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I17" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J17" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K17" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L17" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M17" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N17" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O17" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P17" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q17" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R17" t="n">
         <v>217.0668144745622</v>
@@ -32265,10 +32265,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T17" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I18" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J18" t="n">
         <v>174.6805342079854</v>
@@ -32326,10 +32326,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N18" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O18" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P18" t="n">
         <v>353.0588690565557</v>
@@ -32341,13 +32341,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S18" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T18" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,13 +32390,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I19" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J19" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K19" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L19" t="n">
         <v>230.4510410436245</v>
@@ -32408,7 +32408,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O19" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P19" t="n">
         <v>187.4722178087549</v>
@@ -32417,16 +32417,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R19" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S19" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T19" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,34 +32466,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H20" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I20" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J20" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K20" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L20" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M20" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N20" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O20" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P20" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q20" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R20" t="n">
         <v>217.0668144745622</v>
@@ -32502,10 +32502,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T20" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I21" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J21" t="n">
         <v>174.6805342079854</v>
@@ -32563,10 +32563,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N21" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O21" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P21" t="n">
         <v>353.0588690565557</v>
@@ -32578,13 +32578,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S21" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T21" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,13 +32627,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I22" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J22" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K22" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L22" t="n">
         <v>230.4510410436245</v>
@@ -32645,7 +32645,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O22" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P22" t="n">
         <v>187.4722178087549</v>
@@ -32654,16 +32654,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R22" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S22" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T22" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,34 +32703,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H23" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I23" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J23" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K23" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L23" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M23" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N23" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O23" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P23" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q23" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R23" t="n">
         <v>217.0668144745622</v>
@@ -32739,10 +32739,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T23" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I24" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J24" t="n">
         <v>174.6805342079854</v>
@@ -32800,10 +32800,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N24" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O24" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P24" t="n">
         <v>353.0588690565557</v>
@@ -32815,13 +32815,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S24" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T24" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,13 +32864,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I25" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J25" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K25" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L25" t="n">
         <v>230.4510410436245</v>
@@ -32882,7 +32882,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O25" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P25" t="n">
         <v>187.4722178087549</v>
@@ -32891,16 +32891,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R25" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S25" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T25" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,34 +32940,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H26" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I26" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J26" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K26" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L26" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M26" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N26" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O26" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P26" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q26" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R26" t="n">
         <v>217.0668144745622</v>
@@ -32976,10 +32976,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T26" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I27" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J27" t="n">
         <v>174.6805342079854</v>
@@ -33037,10 +33037,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N27" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O27" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P27" t="n">
         <v>353.0588690565557</v>
@@ -33052,13 +33052,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S27" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T27" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,13 +33101,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I28" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J28" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K28" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L28" t="n">
         <v>230.4510410436245</v>
@@ -33119,7 +33119,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O28" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P28" t="n">
         <v>187.4722178087549</v>
@@ -33128,16 +33128,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R28" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S28" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T28" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,34 +33177,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H29" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I29" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J29" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K29" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L29" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M29" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N29" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O29" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P29" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q29" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R29" t="n">
         <v>217.0668144745622</v>
@@ -33213,10 +33213,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T29" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I30" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J30" t="n">
         <v>174.6805342079854</v>
@@ -33274,10 +33274,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N30" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O30" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P30" t="n">
         <v>353.0588690565557</v>
@@ -33289,13 +33289,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S30" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T30" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,13 +33338,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I31" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J31" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K31" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L31" t="n">
         <v>230.4510410436245</v>
@@ -33356,7 +33356,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O31" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P31" t="n">
         <v>187.4722178087549</v>
@@ -33365,16 +33365,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R31" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S31" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T31" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,34 +33414,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H32" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I32" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J32" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K32" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L32" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M32" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N32" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O32" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P32" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q32" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R32" t="n">
         <v>217.0668144745622</v>
@@ -33450,10 +33450,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T32" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I33" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J33" t="n">
         <v>174.6805342079854</v>
@@ -33511,10 +33511,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N33" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O33" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P33" t="n">
         <v>353.0588690565557</v>
@@ -33526,13 +33526,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S33" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T33" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,13 +33575,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I34" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J34" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K34" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L34" t="n">
         <v>230.4510410436245</v>
@@ -33593,7 +33593,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O34" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P34" t="n">
         <v>187.4722178087549</v>
@@ -33602,16 +33602,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R34" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S34" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T34" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,34 +33651,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H35" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I35" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J35" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K35" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L35" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M35" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N35" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O35" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P35" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q35" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R35" t="n">
         <v>217.0668144745622</v>
@@ -33687,10 +33687,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T35" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I36" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J36" t="n">
         <v>174.6805342079854</v>
@@ -33748,10 +33748,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N36" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O36" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P36" t="n">
         <v>353.0588690565557</v>
@@ -33763,13 +33763,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S36" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T36" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,13 +33812,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I37" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J37" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K37" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L37" t="n">
         <v>230.4510410436245</v>
@@ -33830,7 +33830,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O37" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P37" t="n">
         <v>187.4722178087549</v>
@@ -33839,16 +33839,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R37" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S37" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T37" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,34 +33888,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H38" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I38" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J38" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K38" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L38" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M38" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N38" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O38" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P38" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q38" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R38" t="n">
         <v>217.0668144745622</v>
@@ -33924,10 +33924,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T38" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I39" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J39" t="n">
         <v>174.6805342079854</v>
@@ -33985,10 +33985,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N39" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O39" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P39" t="n">
         <v>353.0588690565557</v>
@@ -34000,13 +34000,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S39" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T39" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,13 +34049,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I40" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J40" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K40" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L40" t="n">
         <v>230.4510410436245</v>
@@ -34067,7 +34067,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O40" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P40" t="n">
         <v>187.4722178087549</v>
@@ -34076,16 +34076,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R40" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S40" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T40" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,34 +34125,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H41" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I41" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J41" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K41" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L41" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M41" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N41" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O41" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P41" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q41" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R41" t="n">
         <v>217.0668144745622</v>
@@ -34161,10 +34161,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T41" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I42" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J42" t="n">
         <v>174.6805342079854</v>
@@ -34222,10 +34222,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N42" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O42" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P42" t="n">
         <v>353.0588690565557</v>
@@ -34237,13 +34237,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S42" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T42" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,13 +34286,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I43" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J43" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K43" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L43" t="n">
         <v>230.4510410436245</v>
@@ -34304,7 +34304,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O43" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P43" t="n">
         <v>187.4722178087549</v>
@@ -34313,16 +34313,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R43" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S43" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T43" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,34 +34362,34 @@
         <v>3.455583777677941</v>
       </c>
       <c r="H44" t="n">
-        <v>35.38949736314423</v>
+        <v>35.38949736314422</v>
       </c>
       <c r="I44" t="n">
-        <v>133.221393588929</v>
+        <v>133.2213935889289</v>
       </c>
       <c r="J44" t="n">
-        <v>293.2883536506935</v>
+        <v>293.2883536506934</v>
       </c>
       <c r="K44" t="n">
-        <v>439.5632149598008</v>
+        <v>439.5632149598007</v>
       </c>
       <c r="L44" t="n">
         <v>545.3170369959122</v>
       </c>
       <c r="M44" t="n">
-        <v>606.7702750021923</v>
+        <v>606.7702750021922</v>
       </c>
       <c r="N44" t="n">
-        <v>616.5884524105198</v>
+        <v>616.5884524105197</v>
       </c>
       <c r="O44" t="n">
-        <v>582.2269912212347</v>
+        <v>582.2269912212346</v>
       </c>
       <c r="P44" t="n">
-        <v>496.9172667098105</v>
+        <v>496.9172667098104</v>
       </c>
       <c r="Q44" t="n">
-        <v>373.1641726717191</v>
+        <v>373.164172671719</v>
       </c>
       <c r="R44" t="n">
         <v>217.0668144745622</v>
@@ -34398,10 +34398,10 @@
         <v>78.74411533383616</v>
       </c>
       <c r="T44" t="n">
-        <v>15.1268179867852</v>
+        <v>15.12681798678519</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2764467022142353</v>
+        <v>0.2764467022142352</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>17.85648467229858</v>
       </c>
       <c r="I45" t="n">
-        <v>63.65731365919341</v>
+        <v>63.6573136591934</v>
       </c>
       <c r="J45" t="n">
         <v>174.6805342079854</v>
@@ -34459,10 +34459,10 @@
         <v>468.4691732600767</v>
       </c>
       <c r="N45" t="n">
-        <v>480.8681583027401</v>
+        <v>480.86815830274</v>
       </c>
       <c r="O45" t="n">
-        <v>439.9004196267853</v>
+        <v>439.9004196267852</v>
       </c>
       <c r="P45" t="n">
         <v>353.0588690565557</v>
@@ -34474,13 +34474,13 @@
         <v>114.794004096757</v>
       </c>
       <c r="S45" t="n">
-        <v>34.34251252823999</v>
+        <v>34.34251252823998</v>
       </c>
       <c r="T45" t="n">
-        <v>7.452365764687734</v>
+        <v>7.452365764687733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1216381789666117</v>
+        <v>0.1216381789666116</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,13 +34523,13 @@
         <v>13.78140627006634</v>
       </c>
       <c r="I46" t="n">
-        <v>46.61440893801577</v>
+        <v>46.61440893801576</v>
       </c>
       <c r="J46" t="n">
         <v>109.58895354019</v>
       </c>
       <c r="K46" t="n">
-        <v>180.0883150628299</v>
+        <v>180.0883150628298</v>
       </c>
       <c r="L46" t="n">
         <v>230.4510410436245</v>
@@ -34541,7 +34541,7 @@
         <v>237.2008300041172</v>
       </c>
       <c r="O46" t="n">
-        <v>219.0933585756558</v>
+        <v>219.0933585756557</v>
       </c>
       <c r="P46" t="n">
         <v>187.4722178087549</v>
@@ -34550,16 +34550,16 @@
         <v>129.7960461693057</v>
       </c>
       <c r="R46" t="n">
-        <v>69.69615072775873</v>
+        <v>69.69615072775872</v>
       </c>
       <c r="S46" t="n">
-        <v>27.01324725942448</v>
+        <v>27.01324725942447</v>
       </c>
       <c r="T46" t="n">
-        <v>6.622966203406106</v>
+        <v>6.622966203406105</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0845485047243334</v>
+        <v>0.08454850472433338</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>131.2826983459113</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>61.78291202903321</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
         <v>76.41420694903812</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>23.32460243089383</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>14.52678165662568</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
         <v>276.1565137023555</v>
@@ -35032,10 +35032,10 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>130.4563381662537</v>
+        <v>281.3390642960809</v>
       </c>
       <c r="K11" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L11" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M11" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N11" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O11" t="n">
-        <v>732.9289610622933</v>
+        <v>582.0462349324665</v>
       </c>
       <c r="P11" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q11" t="n">
-        <v>363.1734734571743</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R11" t="n">
-        <v>67.19769653341251</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K12" t="n">
         <v>425.1806537058022</v>
       </c>
       <c r="L12" t="n">
-        <v>262.8921568695997</v>
+        <v>262.8921568695996</v>
       </c>
       <c r="M12" t="n">
-        <v>531.2115777547451</v>
+        <v>326.3351393380584</v>
       </c>
       <c r="N12" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O12" t="n">
         <v>297.3041751823408</v>
       </c>
       <c r="P12" t="n">
-        <v>537.5472302821627</v>
+        <v>406.2553456225917</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K13" t="n">
         <v>157.818823236947</v>
@@ -35576,7 +35576,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M13" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N13" t="n">
         <v>281.3330023833458</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>130.4563381662537</v>
+        <v>196.1727580392372</v>
       </c>
       <c r="K14" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L14" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M14" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N14" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O14" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P14" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q14" t="n">
-        <v>363.1734734571743</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R14" t="n">
-        <v>67.19769653341251</v>
+        <v>1.481276660430041</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K15" t="n">
         <v>160.7154166932236</v>
       </c>
       <c r="L15" t="n">
-        <v>262.8921568695997</v>
+        <v>262.8921568695996</v>
       </c>
       <c r="M15" t="n">
-        <v>326.3351393380584</v>
+        <v>763.3350903868898</v>
       </c>
       <c r="N15" t="n">
-        <v>425.0058023719427</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O15" t="n">
-        <v>691.1664944590703</v>
+        <v>297.3041751823408</v>
       </c>
       <c r="P15" t="n">
-        <v>537.5472302821627</v>
+        <v>219.0844616422254</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.63616994411382</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K16" t="n">
         <v>157.818823236947</v>
@@ -35813,7 +35813,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M16" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N16" t="n">
         <v>281.3330023833458</v>
@@ -35886,28 +35886,28 @@
         <v>281.3390642960809</v>
       </c>
       <c r="K17" t="n">
-        <v>543.618776485985</v>
+        <v>392.7360503561592</v>
       </c>
       <c r="L17" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M17" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N17" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O17" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P17" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.2907473273469</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R17" t="n">
-        <v>67.19769653341251</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K18" t="n">
-        <v>160.7154166932236</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L18" t="n">
-        <v>262.8921568695997</v>
+        <v>450.0630408499659</v>
       </c>
       <c r="M18" t="n">
-        <v>510.1999763946819</v>
+        <v>326.3351393380584</v>
       </c>
       <c r="N18" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O18" t="n">
-        <v>691.1664944590703</v>
+        <v>297.3041751823408</v>
       </c>
       <c r="P18" t="n">
-        <v>219.0844616422255</v>
+        <v>219.0844616422254</v>
       </c>
       <c r="Q18" t="n">
-        <v>306.1060176927786</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K19" t="n">
         <v>157.818823236947</v>
@@ -36050,7 +36050,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M19" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N19" t="n">
         <v>281.3330023833458</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>130.4563381662537</v>
+        <v>281.3390642960809</v>
       </c>
       <c r="K20" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L20" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M20" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N20" t="n">
-        <v>824.5223132259131</v>
+        <v>673.6395870960876</v>
       </c>
       <c r="O20" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P20" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q20" t="n">
-        <v>363.1734734571743</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R20" t="n">
-        <v>67.19769653341251</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>425.1806537058022</v>
       </c>
       <c r="L21" t="n">
-        <v>262.8921568695997</v>
+        <v>262.8921568695996</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4843724702225</v>
+        <v>326.3351393380584</v>
       </c>
       <c r="N21" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O21" t="n">
         <v>297.3041751823408</v>
       </c>
       <c r="P21" t="n">
-        <v>537.5472302821627</v>
+        <v>406.2553456225917</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R21" t="n">
-        <v>14.63616994411383</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K22" t="n">
         <v>157.818823236947</v>
@@ -36287,7 +36287,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M22" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N22" t="n">
         <v>281.3330023833458</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>130.4563381662546</v>
+        <v>281.3390642960809</v>
       </c>
       <c r="K23" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L23" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M23" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N23" t="n">
-        <v>824.5223132259131</v>
+        <v>673.6395870960876</v>
       </c>
       <c r="O23" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P23" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q23" t="n">
-        <v>363.1734734571743</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R23" t="n">
-        <v>67.19769653341251</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K24" t="n">
-        <v>183.817196182237</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L24" t="n">
-        <v>633.7325021730588</v>
+        <v>262.8921568695996</v>
       </c>
       <c r="M24" t="n">
         <v>326.3351393380584</v>
       </c>
       <c r="N24" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O24" t="n">
-        <v>691.1664944590703</v>
+        <v>297.3041751823408</v>
       </c>
       <c r="P24" t="n">
-        <v>219.0844616422255</v>
+        <v>406.2553456225917</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K25" t="n">
         <v>157.818823236947</v>
@@ -36524,7 +36524,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M25" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N25" t="n">
         <v>281.3330023833458</v>
@@ -36597,28 +36597,28 @@
         <v>281.3390642960809</v>
       </c>
       <c r="K26" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L26" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N26" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O26" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P26" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.2907473273478</v>
+        <v>278.0071672003317</v>
       </c>
       <c r="R26" t="n">
-        <v>67.19769653341251</v>
+        <v>1.481276660430041</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K27" t="n">
-        <v>160.7154166932236</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L27" t="n">
-        <v>262.8921568695997</v>
+        <v>450.0630408499659</v>
       </c>
       <c r="M27" t="n">
         <v>326.3351393380584</v>
       </c>
       <c r="N27" t="n">
-        <v>818.8681216486722</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O27" t="n">
         <v>297.3041751823408</v>
       </c>
       <c r="P27" t="n">
-        <v>537.5472302821627</v>
+        <v>219.0844616422254</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K28" t="n">
         <v>157.818823236947</v>
@@ -36761,7 +36761,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M28" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N28" t="n">
         <v>281.3330023833458</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>281.3390642960809</v>
+        <v>130.4563381662552</v>
       </c>
       <c r="K29" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L29" t="n">
-        <v>642.0455303195321</v>
+        <v>727.2118365763754</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N29" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O29" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P29" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q29" t="n">
-        <v>363.1734734571743</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R29" t="n">
-        <v>1.481276660430069</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K30" t="n">
         <v>425.1806537058022</v>
       </c>
       <c r="L30" t="n">
-        <v>633.7325021730588</v>
+        <v>262.8921568695996</v>
       </c>
       <c r="M30" t="n">
         <v>326.3351393380584</v>
       </c>
       <c r="N30" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O30" t="n">
         <v>297.3041751823408</v>
       </c>
       <c r="P30" t="n">
-        <v>371.5833233953902</v>
+        <v>406.2553456225917</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K31" t="n">
         <v>157.818823236947</v>
@@ -36998,7 +36998,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M31" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N31" t="n">
         <v>281.3330023833458</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.1727580392376</v>
+        <v>281.3390642960809</v>
       </c>
       <c r="K32" t="n">
-        <v>543.618776485985</v>
+        <v>392.7360503561592</v>
       </c>
       <c r="L32" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N32" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O32" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P32" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q32" t="n">
-        <v>363.1734734571743</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R32" t="n">
-        <v>1.481276660430069</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K33" t="n">
-        <v>259.2167468190297</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L33" t="n">
-        <v>633.7325021730588</v>
+        <v>450.0630408499659</v>
       </c>
       <c r="M33" t="n">
         <v>326.3351393380584</v>
       </c>
       <c r="N33" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O33" t="n">
         <v>297.3041751823408</v>
       </c>
       <c r="P33" t="n">
-        <v>537.5472302821627</v>
+        <v>219.0844616422254</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K34" t="n">
         <v>157.818823236947</v>
@@ -37235,7 +37235,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M34" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N34" t="n">
         <v>281.3330023833458</v>
@@ -37308,28 +37308,28 @@
         <v>281.3390642960809</v>
       </c>
       <c r="K35" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L35" t="n">
-        <v>642.0455303195321</v>
+        <v>727.2118365763754</v>
       </c>
       <c r="M35" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N35" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O35" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P35" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q35" t="n">
-        <v>363.1734734571743</v>
+        <v>278.0071672003317</v>
       </c>
       <c r="R35" t="n">
-        <v>1.481276660430069</v>
+        <v>1.481276660430041</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K36" t="n">
-        <v>160.7154166932236</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L36" t="n">
-        <v>633.7325021730588</v>
+        <v>262.8921568695996</v>
       </c>
       <c r="M36" t="n">
-        <v>743.2992381038017</v>
+        <v>326.3351393380584</v>
       </c>
       <c r="N36" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O36" t="n">
         <v>297.3041751823408</v>
       </c>
       <c r="P36" t="n">
-        <v>219.0844616422255</v>
+        <v>406.2553456225917</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K37" t="n">
         <v>157.818823236947</v>
@@ -37472,7 +37472,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M37" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N37" t="n">
         <v>281.3330023833458</v>
@@ -37545,28 +37545,28 @@
         <v>281.3390642960809</v>
       </c>
       <c r="K38" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L38" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M38" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N38" t="n">
-        <v>824.5223132259131</v>
+        <v>673.6395870960866</v>
       </c>
       <c r="O38" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P38" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q38" t="n">
-        <v>278.0071672003308</v>
+        <v>363.1734734571742</v>
       </c>
       <c r="R38" t="n">
-        <v>1.481276660430069</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>47.84290754131868</v>
+        <v>173.9339428817275</v>
       </c>
       <c r="K39" t="n">
-        <v>160.7154166932236</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L39" t="n">
-        <v>262.8921568695997</v>
+        <v>450.0630408499659</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0837513837444</v>
+        <v>326.3351393380584</v>
       </c>
       <c r="N39" t="n">
-        <v>828.8688205629603</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O39" t="n">
         <v>297.3041751823408</v>
       </c>
       <c r="P39" t="n">
-        <v>219.0844616422255</v>
+        <v>219.0844616422254</v>
       </c>
       <c r="Q39" t="n">
-        <v>306.1060176927786</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R39" t="n">
-        <v>14.63616994411383</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K40" t="n">
         <v>157.818823236947</v>
@@ -37709,7 +37709,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M40" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N40" t="n">
         <v>281.3330023833458</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>130.4563381662537</v>
+        <v>281.3390642960809</v>
       </c>
       <c r="K41" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L41" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M41" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N41" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O41" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P41" t="n">
         <v>587.4829791260236</v>
       </c>
       <c r="Q41" t="n">
-        <v>363.1734734571743</v>
+        <v>278.0071672003317</v>
       </c>
       <c r="R41" t="n">
-        <v>67.19769653341251</v>
+        <v>1.481276660430041</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>173.9339428817275</v>
       </c>
       <c r="K42" t="n">
-        <v>160.7154166932236</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L42" t="n">
-        <v>262.8921568695997</v>
+        <v>450.0630408499659</v>
       </c>
       <c r="M42" t="n">
         <v>326.3351393380584</v>
       </c>
       <c r="N42" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O42" t="n">
-        <v>430.4775275353482</v>
+        <v>297.3041751823408</v>
       </c>
       <c r="P42" t="n">
-        <v>537.5472302821627</v>
+        <v>219.0844616422254</v>
       </c>
       <c r="Q42" t="n">
-        <v>306.1060176927786</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K43" t="n">
         <v>157.818823236947</v>
@@ -37946,7 +37946,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M43" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N43" t="n">
         <v>281.3330023833458</v>
@@ -38019,28 +38019,28 @@
         <v>281.3390642960809</v>
       </c>
       <c r="K44" t="n">
-        <v>543.618776485985</v>
+        <v>543.6187764859849</v>
       </c>
       <c r="L44" t="n">
         <v>727.2118365763754</v>
       </c>
       <c r="M44" t="n">
-        <v>825.9375752677521</v>
+        <v>825.937575267752</v>
       </c>
       <c r="N44" t="n">
-        <v>824.5223132259131</v>
+        <v>824.522313225913</v>
       </c>
       <c r="O44" t="n">
-        <v>732.9289610622933</v>
+        <v>732.9289610622932</v>
       </c>
       <c r="P44" t="n">
-        <v>436.6002529961971</v>
+        <v>587.4829791260236</v>
       </c>
       <c r="Q44" t="n">
-        <v>363.1734734571743</v>
+        <v>212.2907473273488</v>
       </c>
       <c r="R44" t="n">
-        <v>67.19769653341251</v>
+        <v>67.19769653341248</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>173.9339428817275</v>
       </c>
       <c r="K45" t="n">
-        <v>160.7154166932236</v>
+        <v>425.1806537058022</v>
       </c>
       <c r="L45" t="n">
-        <v>262.8921568695997</v>
+        <v>262.8921568695996</v>
       </c>
       <c r="M45" t="n">
-        <v>792.0402030880583</v>
+        <v>326.3351393380584</v>
       </c>
       <c r="N45" t="n">
-        <v>349.5264462194068</v>
+        <v>349.5264462194067</v>
       </c>
       <c r="O45" t="n">
-        <v>493.3125201611342</v>
+        <v>297.3041751823408</v>
       </c>
       <c r="P45" t="n">
-        <v>219.0844616422255</v>
+        <v>406.2553456225917</v>
       </c>
       <c r="Q45" t="n">
-        <v>96.02872995692942</v>
+        <v>306.1060176927785</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.22977342351723</v>
+        <v>16.22977342351722</v>
       </c>
       <c r="K46" t="n">
         <v>157.818823236947</v>
@@ -38183,7 +38183,7 @@
         <v>258.0410663039406</v>
       </c>
       <c r="M46" t="n">
-        <v>282.5621881221204</v>
+        <v>282.5621881221203</v>
       </c>
       <c r="N46" t="n">
         <v>281.3330023833458</v>
